--- a/project/data/raw/analysis_frequent_teachers.xlsx
+++ b/project/data/raw/analysis_frequent_teachers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="25120" windowHeight="14200" tabRatio="500"/>
+    <workbookView xWindow="1360" yWindow="240" windowWidth="25120" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7888" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7899" uniqueCount="429">
   <si>
     <t>0397d1a010b4838c0b5c28c70601ca0b</t>
   </si>
@@ -1291,6 +1291,21 @@
   </si>
   <si>
     <t>13 out of 16</t>
+  </si>
+  <si>
+    <t>15 out of 16</t>
+  </si>
+  <si>
+    <t>15 out of 17</t>
+  </si>
+  <si>
+    <t>13 out of 15</t>
+  </si>
+  <si>
+    <t>15 out of 19</t>
+  </si>
+  <si>
+    <t>15 out of 16 good</t>
   </si>
 </sst>
 </file>
@@ -1682,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT261"/>
+  <dimension ref="A1:AT270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="I254" sqref="I254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22935,6 +22950,16 @@
       <c r="D174" s="1" t="s">
         <v>416</v>
       </c>
+      <c r="F174">
+        <v>129</v>
+      </c>
+      <c r="G174">
+        <v>155</v>
+      </c>
+      <c r="H174">
+        <f>129/155</f>
+        <v>0.83225806451612905</v>
+      </c>
       <c r="AI174" s="2"/>
     </row>
     <row r="176" spans="1:46">
@@ -25153,149 +25178,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:46">
-      <c r="A193" t="s">
-        <v>342</v>
-      </c>
-      <c r="B193" t="s">
-        <v>324</v>
-      </c>
-      <c r="C193" t="s">
-        <v>331</v>
-      </c>
-      <c r="D193">
-        <v>60231008782</v>
-      </c>
-      <c r="E193">
-        <v>37.148139999999998</v>
-      </c>
-      <c r="F193">
-        <v>-119.644249</v>
-      </c>
-      <c r="G193" t="s">
-        <v>326</v>
-      </c>
-      <c r="H193" t="s">
-        <v>327</v>
-      </c>
-      <c r="I193">
-        <v>95133</v>
-      </c>
-      <c r="J193" t="s">
-        <v>5</v>
-      </c>
-      <c r="K193" t="s">
-        <v>328</v>
-      </c>
-      <c r="L193" t="s">
-        <v>329</v>
-      </c>
-      <c r="M193" t="s">
-        <v>8</v>
-      </c>
-      <c r="N193" t="s">
-        <v>8</v>
-      </c>
-      <c r="O193" t="s">
-        <v>8</v>
-      </c>
-      <c r="P193" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q193" t="s">
-        <v>8</v>
-      </c>
-      <c r="R193" t="s">
-        <v>8</v>
-      </c>
-      <c r="S193" t="s">
-        <v>164</v>
-      </c>
-      <c r="T193" t="s">
-        <v>8</v>
-      </c>
-      <c r="U193" t="s">
-        <v>8</v>
-      </c>
-      <c r="V193" t="s">
-        <v>97</v>
-      </c>
-      <c r="W193" t="s">
-        <v>98</v>
-      </c>
-      <c r="X193" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y193" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z193" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA193" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB193" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC193">
-        <v>30</v>
-      </c>
-      <c r="AD193">
-        <v>283.23</v>
-      </c>
-      <c r="AE193">
-        <v>333.21</v>
-      </c>
-      <c r="AF193">
-        <v>40</v>
-      </c>
-      <c r="AG193" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH193" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI193" s="2">
-        <v>41558</v>
-      </c>
-      <c r="AJ193" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK193" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL193" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM193" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN193" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO193" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP193" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ193" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR193">
-        <v>50</v>
-      </c>
-      <c r="AS193">
-        <v>0</v>
-      </c>
-      <c r="AT193">
-        <v>4</v>
+    <row r="192" spans="1:46">
+      <c r="A192" t="s">
+        <v>424</v>
+      </c>
+      <c r="B192">
+        <v>15</v>
+      </c>
+      <c r="C192">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="194" spans="1:46">
       <c r="A194" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B194" t="s">
         <v>324</v>
@@ -25364,13 +25263,13 @@
         <v>98</v>
       </c>
       <c r="X194" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="Y194" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Z194" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AA194" t="s">
         <v>14</v>
@@ -25382,22 +25281,22 @@
         <v>30</v>
       </c>
       <c r="AD194">
-        <v>148.16</v>
+        <v>283.23</v>
       </c>
       <c r="AE194">
-        <v>174.31</v>
+        <v>333.21</v>
       </c>
       <c r="AF194">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AG194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH194" t="s">
         <v>8</v>
       </c>
       <c r="AI194" s="2">
-        <v>41398</v>
+        <v>41558</v>
       </c>
       <c r="AJ194" t="s">
         <v>8</v>
@@ -25409,13 +25308,13 @@
         <v>9</v>
       </c>
       <c r="AM194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN194" t="s">
         <v>8</v>
       </c>
       <c r="AO194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP194" t="s">
         <v>9</v>
@@ -25424,18 +25323,18 @@
         <v>8</v>
       </c>
       <c r="AR194">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AS194">
         <v>0</v>
       </c>
       <c r="AT194">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:46">
       <c r="A195" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B195" t="s">
         <v>324</v>
@@ -25498,19 +25397,19 @@
         <v>8</v>
       </c>
       <c r="V195" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="W195" t="s">
         <v>98</v>
       </c>
       <c r="X195" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="Y195" t="s">
         <v>98</v>
       </c>
       <c r="Z195" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="AA195" t="s">
         <v>14</v>
@@ -25522,36 +25421,60 @@
         <v>30</v>
       </c>
       <c r="AD195">
-        <v>247.17</v>
+        <v>148.16</v>
       </c>
       <c r="AE195">
-        <v>290.79000000000002</v>
+        <v>174.31</v>
       </c>
       <c r="AF195">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AG195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH195" t="s">
         <v>8</v>
       </c>
       <c r="AI195" s="2">
-        <v>41375</v>
+        <v>41398</v>
       </c>
       <c r="AJ195" t="s">
         <v>8</v>
       </c>
+      <c r="AK195" t="s">
+        <v>8</v>
+      </c>
       <c r="AL195" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM195" t="s">
         <v>8</v>
       </c>
       <c r="AN195" t="s">
         <v>8</v>
+      </c>
+      <c r="AO195" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP195" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ195" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR195">
+        <v>0</v>
+      </c>
+      <c r="AS195">
+        <v>0</v>
+      </c>
+      <c r="AT195">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:46">
       <c r="A196" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B196" t="s">
         <v>324</v>
@@ -25620,13 +25543,13 @@
         <v>98</v>
       </c>
       <c r="X196" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="Y196" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="Z196" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AA196" t="s">
         <v>14</v>
@@ -25638,60 +25561,36 @@
         <v>30</v>
       </c>
       <c r="AD196">
-        <v>259.33</v>
+        <v>247.17</v>
       </c>
       <c r="AE196">
-        <v>305.08999999999997</v>
+        <v>290.79000000000002</v>
       </c>
       <c r="AF196">
         <v>20</v>
       </c>
       <c r="AG196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH196" t="s">
         <v>8</v>
       </c>
       <c r="AI196" s="2">
-        <v>41282</v>
+        <v>41375</v>
       </c>
       <c r="AJ196" t="s">
         <v>8</v>
       </c>
-      <c r="AK196" t="s">
-        <v>8</v>
-      </c>
       <c r="AL196" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM196" t="s">
         <v>8</v>
       </c>
       <c r="AN196" t="s">
         <v>8</v>
-      </c>
-      <c r="AO196" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP196" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ196" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR196">
-        <v>50</v>
-      </c>
-      <c r="AS196">
-        <v>0</v>
-      </c>
-      <c r="AT196">
-        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:46">
       <c r="A197" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B197" t="s">
         <v>324</v>
@@ -25754,16 +25653,16 @@
         <v>8</v>
       </c>
       <c r="V197" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="W197" t="s">
+        <v>98</v>
+      </c>
+      <c r="X197" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y197" t="s">
         <v>12</v>
-      </c>
-      <c r="X197" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y197" t="s">
-        <v>98</v>
       </c>
       <c r="Z197" t="s">
         <v>13</v>
@@ -25775,16 +25674,16 @@
         <v>95</v>
       </c>
       <c r="AC197">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AD197">
-        <v>334.67</v>
+        <v>259.33</v>
       </c>
       <c r="AE197">
-        <v>393.73</v>
+        <v>305.08999999999997</v>
       </c>
       <c r="AF197">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AG197" t="s">
         <v>8</v>
@@ -25793,7 +25692,7 @@
         <v>8</v>
       </c>
       <c r="AI197" s="2">
-        <v>40827</v>
+        <v>41282</v>
       </c>
       <c r="AJ197" t="s">
         <v>8</v>
@@ -25805,13 +25704,13 @@
         <v>9</v>
       </c>
       <c r="AM197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP197" t="s">
         <v>9</v>
@@ -25820,18 +25719,18 @@
         <v>8</v>
       </c>
       <c r="AR197">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="AS197">
         <v>0</v>
       </c>
       <c r="AT197">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:46">
       <c r="A198" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B198" t="s">
         <v>324</v>
@@ -25894,10 +25793,10 @@
         <v>8</v>
       </c>
       <c r="V198" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="W198" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="X198" t="s">
         <v>133</v>
@@ -25906,7 +25805,7 @@
         <v>98</v>
       </c>
       <c r="Z198" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AA198" t="s">
         <v>14</v>
@@ -25918,13 +25817,13 @@
         <v>35</v>
       </c>
       <c r="AD198">
-        <v>175.26</v>
+        <v>334.67</v>
       </c>
       <c r="AE198">
-        <v>206.19</v>
+        <v>393.73</v>
       </c>
       <c r="AF198">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AG198" t="s">
         <v>8</v>
@@ -25933,7 +25832,7 @@
         <v>8</v>
       </c>
       <c r="AI198" s="2">
-        <v>40756</v>
+        <v>40827</v>
       </c>
       <c r="AJ198" t="s">
         <v>8</v>
@@ -25945,7 +25844,7 @@
         <v>9</v>
       </c>
       <c r="AM198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN198" t="s">
         <v>9</v>
@@ -25954,7 +25853,7 @@
         <v>9</v>
       </c>
       <c r="AP198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ198" t="s">
         <v>8</v>
@@ -25971,7 +25870,7 @@
     </row>
     <row r="199" spans="1:46">
       <c r="A199" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B199" t="s">
         <v>324</v>
@@ -26039,6 +25938,12 @@
       <c r="W199" t="s">
         <v>98</v>
       </c>
+      <c r="X199" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>98</v>
+      </c>
       <c r="Z199" t="s">
         <v>99</v>
       </c>
@@ -26049,16 +25954,16 @@
         <v>95</v>
       </c>
       <c r="AC199">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AD199">
-        <v>274</v>
+        <v>175.26</v>
       </c>
       <c r="AE199">
-        <v>334.15</v>
+        <v>206.19</v>
       </c>
       <c r="AF199">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG199" t="s">
         <v>8</v>
@@ -26067,7 +25972,7 @@
         <v>8</v>
       </c>
       <c r="AI199" s="2">
-        <v>39968</v>
+        <v>40756</v>
       </c>
       <c r="AJ199" t="s">
         <v>8</v>
@@ -26079,48 +25984,48 @@
         <v>9</v>
       </c>
       <c r="AM199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ199" t="s">
         <v>8</v>
       </c>
       <c r="AR199">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="AS199">
         <v>0</v>
       </c>
       <c r="AT199">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:46">
       <c r="A200" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B200" t="s">
         <v>324</v>
       </c>
       <c r="C200" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D200">
-        <v>60231000120</v>
+        <v>60231008782</v>
       </c>
       <c r="E200">
-        <v>37.350141999999998</v>
+        <v>37.148139999999998</v>
       </c>
       <c r="F200">
-        <v>-121.822822</v>
+        <v>-119.644249</v>
       </c>
       <c r="G200" t="s">
         <v>326</v>
@@ -26129,7 +26034,7 @@
         <v>327</v>
       </c>
       <c r="I200">
-        <v>95127</v>
+        <v>95133</v>
       </c>
       <c r="J200" t="s">
         <v>5</v>
@@ -26168,13 +26073,13 @@
         <v>8</v>
       </c>
       <c r="V200" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="W200" t="s">
         <v>98</v>
       </c>
       <c r="Z200" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="AA200" t="s">
         <v>14</v>
@@ -26183,13 +26088,13 @@
         <v>95</v>
       </c>
       <c r="AC200">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AD200">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="AE200">
-        <v>263.41000000000003</v>
+        <v>334.15</v>
       </c>
       <c r="AF200">
         <v>20</v>
@@ -26201,7 +26106,7 @@
         <v>8</v>
       </c>
       <c r="AI200" s="2">
-        <v>39211</v>
+        <v>39968</v>
       </c>
       <c r="AJ200" t="s">
         <v>8</v>
@@ -26210,10 +26115,10 @@
         <v>8</v>
       </c>
       <c r="AL200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN200" t="s">
         <v>8</v>
@@ -26222,21 +26127,24 @@
         <v>8</v>
       </c>
       <c r="AP200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ200" t="s">
         <v>8</v>
+      </c>
+      <c r="AR200">
+        <v>50</v>
       </c>
       <c r="AS200">
         <v>0</v>
       </c>
       <c r="AT200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:46">
       <c r="A201" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B201" t="s">
         <v>324</v>
@@ -26299,13 +26207,13 @@
         <v>8</v>
       </c>
       <c r="V201" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="W201" t="s">
         <v>98</v>
       </c>
       <c r="Z201" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="AA201" t="s">
         <v>14</v>
@@ -26317,13 +26225,13 @@
         <v>17</v>
       </c>
       <c r="AD201">
-        <v>315.18</v>
+        <v>216</v>
       </c>
       <c r="AE201">
-        <v>384.37</v>
+        <v>263.41000000000003</v>
       </c>
       <c r="AF201">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG201" t="s">
         <v>8</v>
@@ -26332,7 +26240,7 @@
         <v>8</v>
       </c>
       <c r="AI201" s="2">
-        <v>39136</v>
+        <v>39211</v>
       </c>
       <c r="AJ201" t="s">
         <v>8</v>
@@ -26341,7 +26249,7 @@
         <v>8</v>
       </c>
       <c r="AL201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM201" t="s">
         <v>8</v>
@@ -26353,7 +26261,7 @@
         <v>8</v>
       </c>
       <c r="AP201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ201" t="s">
         <v>8</v>
@@ -26362,12 +26270,12 @@
         <v>0</v>
       </c>
       <c r="AT201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:46">
       <c r="A202" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B202" t="s">
         <v>324</v>
@@ -26430,13 +26338,13 @@
         <v>8</v>
       </c>
       <c r="V202" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="W202" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="Z202" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="AA202" t="s">
         <v>14</v>
@@ -26448,10 +26356,10 @@
         <v>17</v>
       </c>
       <c r="AD202">
-        <v>243.81</v>
+        <v>315.18</v>
       </c>
       <c r="AE202">
-        <v>297.33</v>
+        <v>384.37</v>
       </c>
       <c r="AF202">
         <v>21</v>
@@ -26475,13 +26383,13 @@
         <v>9</v>
       </c>
       <c r="AM202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN202" t="s">
         <v>8</v>
       </c>
       <c r="AO202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP202" t="s">
         <v>9</v>
@@ -26493,12 +26401,12 @@
         <v>0</v>
       </c>
       <c r="AT202">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:46">
       <c r="A203" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B203" t="s">
         <v>324</v>
@@ -26561,10 +26469,10 @@
         <v>8</v>
       </c>
       <c r="V203" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="W203" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="Z203" t="s">
         <v>13</v>
@@ -26579,10 +26487,10 @@
         <v>17</v>
       </c>
       <c r="AD203">
-        <v>174.27</v>
+        <v>243.81</v>
       </c>
       <c r="AE203">
-        <v>212.52</v>
+        <v>297.33</v>
       </c>
       <c r="AF203">
         <v>21</v>
@@ -26594,7 +26502,7 @@
         <v>8</v>
       </c>
       <c r="AI203" s="2">
-        <v>39133</v>
+        <v>39136</v>
       </c>
       <c r="AJ203" t="s">
         <v>8</v>
@@ -26606,13 +26514,13 @@
         <v>9</v>
       </c>
       <c r="AM203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN203" t="s">
         <v>8</v>
       </c>
       <c r="AO203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP203" t="s">
         <v>9</v>
@@ -26624,12 +26532,12 @@
         <v>0</v>
       </c>
       <c r="AT203">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:46">
       <c r="A204" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B204" t="s">
         <v>324</v>
@@ -26697,14 +26605,8 @@
       <c r="W204" t="s">
         <v>98</v>
       </c>
-      <c r="X204" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y204" t="s">
-        <v>98</v>
-      </c>
       <c r="Z204" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AA204" t="s">
         <v>14</v>
@@ -26712,14 +26614,17 @@
       <c r="AB204" t="s">
         <v>95</v>
       </c>
+      <c r="AC204">
+        <v>17</v>
+      </c>
       <c r="AD204">
-        <v>161.94999999999999</v>
+        <v>174.27</v>
       </c>
       <c r="AE204">
-        <v>197.5</v>
+        <v>212.52</v>
       </c>
       <c r="AF204">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG204" t="s">
         <v>8</v>
@@ -26728,7 +26633,7 @@
         <v>8</v>
       </c>
       <c r="AI204" s="2">
-        <v>39048</v>
+        <v>39133</v>
       </c>
       <c r="AJ204" t="s">
         <v>8</v>
@@ -26740,7 +26645,7 @@
         <v>9</v>
       </c>
       <c r="AM204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN204" t="s">
         <v>8</v>
@@ -26763,7 +26668,7 @@
     </row>
     <row r="205" spans="1:46">
       <c r="A205" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B205" t="s">
         <v>324</v>
@@ -26832,10 +26737,10 @@
         <v>98</v>
       </c>
       <c r="X205" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="Y205" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="Z205" t="s">
         <v>99</v>
@@ -26847,10 +26752,10 @@
         <v>95</v>
       </c>
       <c r="AD205">
-        <v>447.93</v>
+        <v>161.94999999999999</v>
       </c>
       <c r="AE205">
-        <v>546.26</v>
+        <v>197.5</v>
       </c>
       <c r="AF205">
         <v>20</v>
@@ -26862,7 +26767,7 @@
         <v>8</v>
       </c>
       <c r="AI205" s="2">
-        <v>39044</v>
+        <v>39048</v>
       </c>
       <c r="AJ205" t="s">
         <v>8</v>
@@ -26880,7 +26785,7 @@
         <v>8</v>
       </c>
       <c r="AO205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP205" t="s">
         <v>9</v>
@@ -26892,12 +26797,12 @@
         <v>0</v>
       </c>
       <c r="AT205">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:46">
-      <c r="A206" s="1" t="s">
-        <v>332</v>
+      <c r="A206" t="s">
+        <v>343</v>
       </c>
       <c r="B206" t="s">
         <v>324</v>
@@ -26965,8 +26870,14 @@
       <c r="W206" t="s">
         <v>98</v>
       </c>
+      <c r="X206" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>29</v>
+      </c>
       <c r="Z206" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AA206" t="s">
         <v>14</v>
@@ -26975,10 +26886,10 @@
         <v>95</v>
       </c>
       <c r="AD206">
-        <v>198.85</v>
+        <v>447.93</v>
       </c>
       <c r="AE206">
-        <v>242.5</v>
+        <v>546.26</v>
       </c>
       <c r="AF206">
         <v>20</v>
@@ -26990,7 +26901,7 @@
         <v>8</v>
       </c>
       <c r="AI206" s="2">
-        <v>39001</v>
+        <v>39044</v>
       </c>
       <c r="AJ206" t="s">
         <v>8</v>
@@ -27008,7 +26919,7 @@
         <v>8</v>
       </c>
       <c r="AO206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP206" t="s">
         <v>9</v>
@@ -27020,12 +26931,12 @@
         <v>0</v>
       </c>
       <c r="AT206">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:46">
-      <c r="A207" t="s">
-        <v>323</v>
+      <c r="A207" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="B207" t="s">
         <v>324</v>
@@ -27103,10 +27014,10 @@
         <v>95</v>
       </c>
       <c r="AD207">
-        <v>260.35000000000002</v>
+        <v>198.85</v>
       </c>
       <c r="AE207">
-        <v>317.5</v>
+        <v>242.5</v>
       </c>
       <c r="AF207">
         <v>20</v>
@@ -27118,7 +27029,7 @@
         <v>8</v>
       </c>
       <c r="AI207" s="2">
-        <v>38991</v>
+        <v>39001</v>
       </c>
       <c r="AJ207" t="s">
         <v>8</v>
@@ -27152,8 +27063,8 @@
       </c>
     </row>
     <row r="208" spans="1:46">
-      <c r="A208" s="1" t="s">
-        <v>339</v>
+      <c r="A208" t="s">
+        <v>323</v>
       </c>
       <c r="B208" t="s">
         <v>324</v>
@@ -27221,12 +27132,6 @@
       <c r="W208" t="s">
         <v>98</v>
       </c>
-      <c r="X208" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y208" t="s">
-        <v>98</v>
-      </c>
       <c r="Z208" t="s">
         <v>13</v>
       </c>
@@ -27237,10 +27142,10 @@
         <v>95</v>
       </c>
       <c r="AD208">
-        <v>181.43</v>
+        <v>260.35000000000002</v>
       </c>
       <c r="AE208">
-        <v>221.26</v>
+        <v>317.5</v>
       </c>
       <c r="AF208">
         <v>20</v>
@@ -27252,7 +27157,7 @@
         <v>8</v>
       </c>
       <c r="AI208" s="2">
-        <v>38847</v>
+        <v>38991</v>
       </c>
       <c r="AJ208" t="s">
         <v>8</v>
@@ -27286,8 +27191,8 @@
       </c>
     </row>
     <row r="209" spans="1:46">
-      <c r="A209" t="s">
-        <v>341</v>
+      <c r="A209" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="B209" t="s">
         <v>324</v>
@@ -27350,10 +27255,16 @@
         <v>8</v>
       </c>
       <c r="V209" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="W209" t="s">
-        <v>29</v>
+        <v>98</v>
+      </c>
+      <c r="X209" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>98</v>
       </c>
       <c r="Z209" t="s">
         <v>13</v>
@@ -27365,10 +27276,10 @@
         <v>95</v>
       </c>
       <c r="AD209">
-        <v>380.28</v>
+        <v>181.43</v>
       </c>
       <c r="AE209">
-        <v>463.76</v>
+        <v>221.26</v>
       </c>
       <c r="AF209">
         <v>20</v>
@@ -27380,7 +27291,7 @@
         <v>8</v>
       </c>
       <c r="AI209" s="2">
-        <v>38509</v>
+        <v>38847</v>
       </c>
       <c r="AJ209" t="s">
         <v>8</v>
@@ -27392,7 +27303,7 @@
         <v>9</v>
       </c>
       <c r="AM209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN209" t="s">
         <v>8</v>
@@ -27410,286 +27321,155 @@
         <v>0</v>
       </c>
       <c r="AT209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:46">
+      <c r="A210" t="s">
+        <v>341</v>
+      </c>
+      <c r="B210" t="s">
+        <v>324</v>
+      </c>
+      <c r="C210" t="s">
+        <v>325</v>
+      </c>
+      <c r="D210">
+        <v>60231000120</v>
+      </c>
+      <c r="E210">
+        <v>37.350141999999998</v>
+      </c>
+      <c r="F210">
+        <v>-121.822822</v>
+      </c>
+      <c r="G210" t="s">
+        <v>326</v>
+      </c>
+      <c r="H210" t="s">
+        <v>327</v>
+      </c>
+      <c r="I210">
+        <v>95127</v>
+      </c>
+      <c r="J210" t="s">
+        <v>5</v>
+      </c>
+      <c r="K210" t="s">
+        <v>328</v>
+      </c>
+      <c r="L210" t="s">
+        <v>329</v>
+      </c>
+      <c r="M210" t="s">
+        <v>8</v>
+      </c>
+      <c r="N210" t="s">
+        <v>8</v>
+      </c>
+      <c r="O210" t="s">
+        <v>8</v>
+      </c>
+      <c r="P210" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>8</v>
+      </c>
+      <c r="R210" t="s">
+        <v>8</v>
+      </c>
+      <c r="S210" t="s">
+        <v>164</v>
+      </c>
+      <c r="T210" t="s">
+        <v>8</v>
+      </c>
+      <c r="U210" t="s">
+        <v>8</v>
+      </c>
+      <c r="V210" t="s">
+        <v>226</v>
+      </c>
+      <c r="W210" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD210">
+        <v>380.28</v>
+      </c>
+      <c r="AE210">
+        <v>463.76</v>
+      </c>
+      <c r="AF210">
+        <v>20</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH210" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI210" s="2">
+        <v>38509</v>
+      </c>
+      <c r="AJ210" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK210" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL210" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM210" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN210" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO210" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP210" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ210" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS210">
+        <v>0</v>
+      </c>
+      <c r="AT210">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:46">
       <c r="A211" t="s">
-        <v>347</v>
-      </c>
-      <c r="B211" t="s">
-        <v>348</v>
-      </c>
-      <c r="C211" t="s">
-        <v>349</v>
-      </c>
-      <c r="D211" s="1">
-        <v>370000000000</v>
-      </c>
-      <c r="E211">
-        <v>35.475527999999997</v>
-      </c>
-      <c r="F211">
-        <v>-82.579688000000004</v>
-      </c>
-      <c r="G211" t="s">
-        <v>350</v>
-      </c>
-      <c r="H211" t="s">
-        <v>130</v>
-      </c>
-      <c r="I211">
-        <v>28704</v>
-      </c>
-      <c r="J211" t="s">
-        <v>351</v>
-      </c>
-      <c r="K211" t="s">
-        <v>352</v>
-      </c>
-      <c r="L211" t="s">
-        <v>353</v>
-      </c>
-      <c r="M211" t="s">
-        <v>8</v>
-      </c>
-      <c r="N211" t="s">
-        <v>8</v>
-      </c>
-      <c r="O211" t="s">
-        <v>8</v>
-      </c>
-      <c r="P211" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q211" t="s">
-        <v>8</v>
-      </c>
-      <c r="R211" t="s">
-        <v>8</v>
-      </c>
-      <c r="S211" t="s">
-        <v>164</v>
-      </c>
-      <c r="T211" t="s">
-        <v>8</v>
-      </c>
-      <c r="U211" t="s">
-        <v>8</v>
-      </c>
-      <c r="V211" t="s">
-        <v>101</v>
-      </c>
-      <c r="W211" t="s">
-        <v>98</v>
-      </c>
-      <c r="X211" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y211" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z211" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA211" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB211" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC211">
+        <v>425</v>
+      </c>
+      <c r="B211">
+        <v>15</v>
+      </c>
+      <c r="C211">
         <v>17</v>
       </c>
-      <c r="AD211">
-        <v>130</v>
-      </c>
-      <c r="AE211">
-        <v>158.54</v>
-      </c>
-      <c r="AF211">
-        <v>25</v>
-      </c>
-      <c r="AG211" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH211" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI211" s="2">
-        <v>39554</v>
-      </c>
-      <c r="AJ211" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK211" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL211" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM211" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN211" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO211" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP211" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ211" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR211">
-        <v>100</v>
-      </c>
-      <c r="AS211">
-        <v>0</v>
-      </c>
-      <c r="AT211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:46">
-      <c r="A212" t="s">
-        <v>360</v>
-      </c>
-      <c r="B212" t="s">
-        <v>348</v>
-      </c>
-      <c r="C212" t="s">
-        <v>349</v>
-      </c>
-      <c r="D212" s="1">
-        <v>370000000000</v>
-      </c>
-      <c r="E212">
-        <v>35.475527999999997</v>
-      </c>
-      <c r="F212">
-        <v>-82.579688000000004</v>
-      </c>
-      <c r="G212" t="s">
-        <v>350</v>
-      </c>
-      <c r="H212" t="s">
-        <v>130</v>
-      </c>
-      <c r="I212">
-        <v>28704</v>
-      </c>
-      <c r="J212" t="s">
-        <v>351</v>
-      </c>
-      <c r="K212" t="s">
-        <v>352</v>
-      </c>
-      <c r="L212" t="s">
-        <v>353</v>
-      </c>
-      <c r="M212" t="s">
-        <v>8</v>
-      </c>
-      <c r="N212" t="s">
-        <v>8</v>
-      </c>
-      <c r="O212" t="s">
-        <v>8</v>
-      </c>
-      <c r="P212" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>8</v>
-      </c>
-      <c r="R212" t="s">
-        <v>8</v>
-      </c>
-      <c r="S212" t="s">
-        <v>164</v>
-      </c>
-      <c r="T212" t="s">
-        <v>8</v>
-      </c>
-      <c r="U212" t="s">
-        <v>8</v>
-      </c>
-      <c r="V212" t="s">
-        <v>97</v>
-      </c>
-      <c r="W212" t="s">
-        <v>98</v>
-      </c>
-      <c r="X212" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y212" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z212" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA212" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB212" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD212">
-        <v>260</v>
-      </c>
-      <c r="AE212">
-        <v>317.07</v>
-      </c>
-      <c r="AF212">
-        <v>45</v>
-      </c>
-      <c r="AG212" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH212" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI212" s="2">
-        <v>39125</v>
-      </c>
-      <c r="AJ212" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK212" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL212" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM212" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN212" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO212" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP212" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ212" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS212">
-        <v>0</v>
-      </c>
-      <c r="AT212">
-        <v>2</v>
-      </c>
+      <c r="D211" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI211" s="2"/>
     </row>
     <row r="213" spans="1:46">
       <c r="A213" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B213" t="s">
         <v>348</v>
@@ -27758,13 +27538,13 @@
         <v>98</v>
       </c>
       <c r="X213" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y213" t="s">
         <v>12</v>
       </c>
       <c r="Z213" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AA213" t="s">
         <v>94</v>
@@ -27776,13 +27556,13 @@
         <v>17</v>
       </c>
       <c r="AD213">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="AE213">
-        <v>123.17</v>
+        <v>158.54</v>
       </c>
       <c r="AF213">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG213" t="s">
         <v>8</v>
@@ -27791,7 +27571,7 @@
         <v>8</v>
       </c>
       <c r="AI213" s="2">
-        <v>39506</v>
+        <v>39554</v>
       </c>
       <c r="AJ213" t="s">
         <v>8</v>
@@ -27812,7 +27592,7 @@
         <v>8</v>
       </c>
       <c r="AP213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ213" t="s">
         <v>8</v>
@@ -27824,12 +27604,12 @@
         <v>0</v>
       </c>
       <c r="AT213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:46">
       <c r="A214" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B214" t="s">
         <v>348</v>
@@ -27892,11 +27672,17 @@
         <v>8</v>
       </c>
       <c r="V214" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="W214" t="s">
         <v>98</v>
       </c>
+      <c r="X214" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>98</v>
+      </c>
       <c r="Z214" t="s">
         <v>13</v>
       </c>
@@ -27906,17 +27692,14 @@
       <c r="AB214" t="s">
         <v>95</v>
       </c>
-      <c r="AC214">
-        <v>17</v>
-      </c>
       <c r="AD214">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="AE214">
-        <v>168.29</v>
+        <v>317.07</v>
       </c>
       <c r="AF214">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AG214" t="s">
         <v>8</v>
@@ -27925,7 +27708,7 @@
         <v>8</v>
       </c>
       <c r="AI214" s="2">
-        <v>39666</v>
+        <v>39125</v>
       </c>
       <c r="AJ214" t="s">
         <v>8</v>
@@ -27960,7 +27743,7 @@
     </row>
     <row r="215" spans="1:46">
       <c r="A215" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B215" t="s">
         <v>348</v>
@@ -28023,19 +27806,19 @@
         <v>8</v>
       </c>
       <c r="V215" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="W215" t="s">
+        <v>98</v>
+      </c>
+      <c r="X215" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y215" t="s">
         <v>12</v>
       </c>
-      <c r="X215" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y215" t="s">
-        <v>98</v>
-      </c>
       <c r="Z215" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AA215" t="s">
         <v>94</v>
@@ -28047,13 +27830,13 @@
         <v>17</v>
       </c>
       <c r="AD215">
-        <v>161.05000000000001</v>
+        <v>101</v>
       </c>
       <c r="AE215">
-        <v>196.4</v>
+        <v>123.17</v>
       </c>
       <c r="AF215">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG215" t="s">
         <v>8</v>
@@ -28062,7 +27845,7 @@
         <v>8</v>
       </c>
       <c r="AI215" s="2">
-        <v>39847</v>
+        <v>39506</v>
       </c>
       <c r="AJ215" t="s">
         <v>8</v>
@@ -28071,10 +27854,10 @@
         <v>8</v>
       </c>
       <c r="AL215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN215" t="s">
         <v>9</v>
@@ -28095,12 +27878,12 @@
         <v>0</v>
       </c>
       <c r="AT215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:46">
       <c r="A216" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B216" t="s">
         <v>348</v>
@@ -28168,12 +27951,6 @@
       <c r="W216" t="s">
         <v>98</v>
       </c>
-      <c r="X216" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y216" t="s">
-        <v>12</v>
-      </c>
       <c r="Z216" t="s">
         <v>13</v>
       </c>
@@ -28187,22 +27964,22 @@
         <v>17</v>
       </c>
       <c r="AD216">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AE216">
-        <v>170.73</v>
+        <v>168.29</v>
       </c>
       <c r="AF216">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH216" t="s">
         <v>8</v>
       </c>
       <c r="AI216" s="2">
-        <v>39908</v>
+        <v>39666</v>
       </c>
       <c r="AJ216" t="s">
         <v>8</v>
@@ -28217,30 +27994,27 @@
         <v>9</v>
       </c>
       <c r="AN216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ216" t="s">
         <v>8</v>
-      </c>
-      <c r="AR216">
-        <v>66</v>
       </c>
       <c r="AS216">
         <v>0</v>
       </c>
       <c r="AT216">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:46">
       <c r="A217" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B217" t="s">
         <v>348</v>
@@ -28303,19 +28077,19 @@
         <v>8</v>
       </c>
       <c r="V217" t="s">
+        <v>21</v>
+      </c>
+      <c r="W217" t="s">
+        <v>12</v>
+      </c>
+      <c r="X217" t="s">
         <v>101</v>
-      </c>
-      <c r="W217" t="s">
-        <v>98</v>
-      </c>
-      <c r="X217" t="s">
-        <v>97</v>
       </c>
       <c r="Y217" t="s">
         <v>98</v>
       </c>
       <c r="Z217" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AA217" t="s">
         <v>94</v>
@@ -28324,16 +28098,16 @@
         <v>95</v>
       </c>
       <c r="AC217">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AD217">
-        <v>147.96</v>
+        <v>161.05000000000001</v>
       </c>
       <c r="AE217">
-        <v>174.07</v>
+        <v>196.4</v>
       </c>
       <c r="AF217">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG217" t="s">
         <v>8</v>
@@ -28342,7 +28116,7 @@
         <v>8</v>
       </c>
       <c r="AI217" s="2">
-        <v>40472</v>
+        <v>39847</v>
       </c>
       <c r="AJ217" t="s">
         <v>8</v>
@@ -28351,36 +28125,36 @@
         <v>8</v>
       </c>
       <c r="AL217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN217" t="s">
         <v>9</v>
       </c>
       <c r="AO217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ217" t="s">
         <v>8</v>
       </c>
       <c r="AR217">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AS217">
         <v>0</v>
       </c>
       <c r="AT217">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:46">
       <c r="A218" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="B218" t="s">
         <v>348</v>
@@ -28443,13 +28217,19 @@
         <v>8</v>
       </c>
       <c r="V218" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="W218" t="s">
+        <v>98</v>
+      </c>
+      <c r="X218" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y218" t="s">
         <v>12</v>
       </c>
       <c r="Z218" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AA218" t="s">
         <v>94</v>
@@ -28458,25 +28238,25 @@
         <v>95</v>
       </c>
       <c r="AC218">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AD218">
-        <v>149.65</v>
+        <v>140</v>
       </c>
       <c r="AE218">
-        <v>176.06</v>
+        <v>170.73</v>
       </c>
       <c r="AF218">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH218" t="s">
         <v>8</v>
       </c>
       <c r="AI218" s="2">
-        <v>40910</v>
+        <v>39908</v>
       </c>
       <c r="AJ218" t="s">
         <v>8</v>
@@ -28491,30 +28271,30 @@
         <v>9</v>
       </c>
       <c r="AN218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ218" t="s">
         <v>8</v>
       </c>
       <c r="AR218">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AS218">
         <v>0</v>
       </c>
       <c r="AT218">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:46">
       <c r="A219" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B219" t="s">
         <v>348</v>
@@ -28589,7 +28369,7 @@
         <v>98</v>
       </c>
       <c r="Z219" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AA219" t="s">
         <v>94</v>
@@ -28601,13 +28381,13 @@
         <v>35</v>
       </c>
       <c r="AD219">
-        <v>155.07</v>
+        <v>147.96</v>
       </c>
       <c r="AE219">
-        <v>182.44</v>
+        <v>174.07</v>
       </c>
       <c r="AF219">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG219" t="s">
         <v>8</v>
@@ -28616,7 +28396,7 @@
         <v>8</v>
       </c>
       <c r="AI219" s="2">
-        <v>40924</v>
+        <v>40472</v>
       </c>
       <c r="AJ219" t="s">
         <v>8</v>
@@ -28625,7 +28405,7 @@
         <v>8</v>
       </c>
       <c r="AL219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM219" t="s">
         <v>9</v>
@@ -28637,7 +28417,7 @@
         <v>9</v>
       </c>
       <c r="AP219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ219" t="s">
         <v>8</v>
@@ -28649,12 +28429,12 @@
         <v>0</v>
       </c>
       <c r="AT219">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:46">
       <c r="A220" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B220" t="s">
         <v>348</v>
@@ -28717,16 +28497,10 @@
         <v>8</v>
       </c>
       <c r="V220" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="W220" t="s">
-        <v>98</v>
-      </c>
-      <c r="X220" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y220" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="Z220" t="s">
         <v>99</v>
@@ -28741,10 +28515,10 @@
         <v>35</v>
       </c>
       <c r="AD220">
-        <v>184.72</v>
+        <v>149.65</v>
       </c>
       <c r="AE220">
-        <v>217.32</v>
+        <v>176.06</v>
       </c>
       <c r="AF220">
         <v>22</v>
@@ -28756,13 +28530,13 @@
         <v>8</v>
       </c>
       <c r="AI220" s="2">
-        <v>41005</v>
+        <v>40910</v>
       </c>
       <c r="AJ220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL220" t="s">
         <v>9</v>
@@ -28771,30 +28545,30 @@
         <v>9</v>
       </c>
       <c r="AN220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ220" t="s">
         <v>8</v>
       </c>
       <c r="AR220">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AS220">
+        <v>0</v>
+      </c>
+      <c r="AT220">
         <v>2</v>
-      </c>
-      <c r="AT220">
-        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:46">
       <c r="A221" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B221" t="s">
         <v>348</v>
@@ -28869,7 +28643,7 @@
         <v>98</v>
       </c>
       <c r="Z221" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="AA221" t="s">
         <v>94</v>
@@ -28878,25 +28652,25 @@
         <v>95</v>
       </c>
       <c r="AC221">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD221">
-        <v>142.19999999999999</v>
+        <v>155.07</v>
       </c>
       <c r="AE221">
-        <v>167.29</v>
+        <v>182.44</v>
       </c>
       <c r="AF221">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH221" t="s">
         <v>8</v>
       </c>
       <c r="AI221" s="2">
-        <v>41197</v>
+        <v>40924</v>
       </c>
       <c r="AJ221" t="s">
         <v>8</v>
@@ -28905,13 +28679,13 @@
         <v>8</v>
       </c>
       <c r="AL221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM221" t="s">
         <v>9</v>
       </c>
       <c r="AN221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO221" t="s">
         <v>9</v>
@@ -28923,18 +28697,18 @@
         <v>8</v>
       </c>
       <c r="AR221">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AS221">
         <v>0</v>
       </c>
       <c r="AT221">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:46">
-      <c r="A222" s="1" t="s">
-        <v>354</v>
+      <c r="A222" t="s">
+        <v>363</v>
       </c>
       <c r="B222" t="s">
         <v>348</v>
@@ -29002,8 +28776,14 @@
       <c r="W222" t="s">
         <v>98</v>
       </c>
+      <c r="X222" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>98</v>
+      </c>
       <c r="Z222" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="AA222" t="s">
         <v>94</v>
@@ -29012,16 +28792,16 @@
         <v>95</v>
       </c>
       <c r="AC222">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD222">
-        <v>832.63</v>
+        <v>184.72</v>
       </c>
       <c r="AE222">
-        <v>979.56</v>
+        <v>217.32</v>
       </c>
       <c r="AF222">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="AG222" t="s">
         <v>8</v>
@@ -29030,13 +28810,13 @@
         <v>8</v>
       </c>
       <c r="AI222" s="2">
-        <v>41447</v>
+        <v>41005</v>
       </c>
       <c r="AJ222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL222" t="s">
         <v>9</v>
@@ -29051,24 +28831,24 @@
         <v>9</v>
       </c>
       <c r="AP222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR222">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="AS222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT222">
-        <v>73</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:46">
       <c r="A223" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B223" t="s">
         <v>348</v>
@@ -29136,6 +28916,12 @@
       <c r="W223" t="s">
         <v>98</v>
       </c>
+      <c r="X223" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>98</v>
+      </c>
       <c r="Z223" t="s">
         <v>25</v>
       </c>
@@ -29149,60 +28935,60 @@
         <v>30</v>
       </c>
       <c r="AD223">
-        <v>916.38</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="AE223">
-        <v>1078.0899999999999</v>
+        <v>167.29</v>
       </c>
       <c r="AF223">
+        <v>25</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH223" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI223" s="2">
+        <v>41197</v>
+      </c>
+      <c r="AJ223" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM223" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN223" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO223" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP223" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ223" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR223">
         <v>50</v>
-      </c>
-      <c r="AG223" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH223" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI223" s="2">
-        <v>41447</v>
-      </c>
-      <c r="AJ223" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK223" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL223" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM223" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN223" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO223" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP223" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ223" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR223">
-        <v>80</v>
       </c>
       <c r="AS223">
         <v>0</v>
       </c>
       <c r="AT223">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:46">
-      <c r="A224" t="s">
-        <v>364</v>
+      <c r="A224" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="B224" t="s">
         <v>348</v>
@@ -29270,14 +29056,8 @@
       <c r="W224" t="s">
         <v>98</v>
       </c>
-      <c r="X224" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y224" t="s">
-        <v>98</v>
-      </c>
       <c r="Z224" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AA224" t="s">
         <v>94</v>
@@ -29289,22 +29069,22 @@
         <v>30</v>
       </c>
       <c r="AD224">
-        <v>315.86</v>
+        <v>832.63</v>
       </c>
       <c r="AE224">
-        <v>371.6</v>
+        <v>979.56</v>
       </c>
       <c r="AF224">
         <v>50</v>
       </c>
       <c r="AG224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH224" t="s">
         <v>8</v>
       </c>
       <c r="AI224" s="2">
-        <v>41553</v>
+        <v>41447</v>
       </c>
       <c r="AJ224" t="s">
         <v>8</v>
@@ -29316,7 +29096,7 @@
         <v>9</v>
       </c>
       <c r="AM224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN224" t="s">
         <v>9</v>
@@ -29328,21 +29108,21 @@
         <v>9</v>
       </c>
       <c r="AQ224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR224">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="AS224">
         <v>0</v>
       </c>
       <c r="AT224">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225" spans="1:46">
       <c r="A225" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B225" t="s">
         <v>348</v>
@@ -29410,12 +29190,6 @@
       <c r="W225" t="s">
         <v>98</v>
       </c>
-      <c r="X225" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y225" t="s">
-        <v>98</v>
-      </c>
       <c r="Z225" t="s">
         <v>25</v>
       </c>
@@ -29429,10 +29203,10 @@
         <v>30</v>
       </c>
       <c r="AD225">
-        <v>270.35000000000002</v>
+        <v>916.38</v>
       </c>
       <c r="AE225">
-        <v>318.06</v>
+        <v>1078.0899999999999</v>
       </c>
       <c r="AF225">
         <v>50</v>
@@ -29444,7 +29218,7 @@
         <v>8</v>
       </c>
       <c r="AI225" s="2">
-        <v>41581</v>
+        <v>41447</v>
       </c>
       <c r="AJ225" t="s">
         <v>8</v>
@@ -29465,57 +29239,197 @@
         <v>9</v>
       </c>
       <c r="AP225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR225">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AS225">
         <v>0</v>
       </c>
       <c r="AT225">
-        <v>38</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="226" spans="1:46">
+      <c r="A226" t="s">
+        <v>364</v>
+      </c>
+      <c r="B226" t="s">
+        <v>348</v>
+      </c>
+      <c r="C226" t="s">
+        <v>349</v>
+      </c>
+      <c r="D226" s="1">
+        <v>370000000000</v>
+      </c>
+      <c r="E226">
+        <v>35.475527999999997</v>
+      </c>
+      <c r="F226">
+        <v>-82.579688000000004</v>
+      </c>
+      <c r="G226" t="s">
+        <v>350</v>
+      </c>
+      <c r="H226" t="s">
+        <v>130</v>
+      </c>
+      <c r="I226">
+        <v>28704</v>
+      </c>
+      <c r="J226" t="s">
+        <v>351</v>
+      </c>
+      <c r="K226" t="s">
+        <v>352</v>
+      </c>
+      <c r="L226" t="s">
+        <v>353</v>
+      </c>
+      <c r="M226" t="s">
+        <v>8</v>
+      </c>
+      <c r="N226" t="s">
+        <v>8</v>
+      </c>
+      <c r="O226" t="s">
+        <v>8</v>
+      </c>
+      <c r="P226" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>8</v>
+      </c>
+      <c r="R226" t="s">
+        <v>8</v>
+      </c>
+      <c r="S226" t="s">
+        <v>164</v>
+      </c>
+      <c r="T226" t="s">
+        <v>8</v>
+      </c>
+      <c r="U226" t="s">
+        <v>8</v>
+      </c>
+      <c r="V226" t="s">
+        <v>101</v>
+      </c>
+      <c r="W226" t="s">
+        <v>98</v>
+      </c>
+      <c r="X226" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC226">
+        <v>30</v>
+      </c>
+      <c r="AD226">
+        <v>315.86</v>
+      </c>
+      <c r="AE226">
+        <v>371.6</v>
+      </c>
+      <c r="AF226">
+        <v>50</v>
+      </c>
+      <c r="AG226" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH226" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI226" s="2">
+        <v>41553</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL226" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM226" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN226" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO226" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP226" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ226" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR226">
+        <v>66</v>
+      </c>
+      <c r="AS226">
+        <v>0</v>
+      </c>
+      <c r="AT226">
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:46">
       <c r="A227" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="B227" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="C227" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="D227" s="1">
-        <v>210000000000</v>
+        <v>370000000000</v>
       </c>
       <c r="E227">
-        <v>37.271030000000003</v>
+        <v>35.475527999999997</v>
       </c>
       <c r="F227">
-        <v>-82.939971999999997</v>
+        <v>-82.579688000000004</v>
       </c>
       <c r="G227" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="H227" t="s">
-        <v>372</v>
+        <v>130</v>
       </c>
       <c r="I227">
-        <v>41834</v>
+        <v>28704</v>
       </c>
       <c r="J227" t="s">
-        <v>225</v>
+        <v>351</v>
       </c>
       <c r="K227" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="L227" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="M227" t="s">
         <v>8</v>
@@ -29550,41 +29464,47 @@
       <c r="W227" t="s">
         <v>98</v>
       </c>
+      <c r="X227" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>98</v>
+      </c>
       <c r="Z227" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="AA227" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="AB227" t="s">
         <v>95</v>
       </c>
       <c r="AC227">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AD227">
-        <v>140.03</v>
+        <v>270.35000000000002</v>
       </c>
       <c r="AE227">
-        <v>164.74</v>
+        <v>318.06</v>
       </c>
       <c r="AF227">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AG227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI227" s="2">
-        <v>40607</v>
+        <v>41581</v>
       </c>
       <c r="AJ227" t="s">
         <v>8</v>
       </c>
       <c r="AK227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL227" t="s">
         <v>9</v>
@@ -29593,7 +29513,7 @@
         <v>9</v>
       </c>
       <c r="AN227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO227" t="s">
         <v>9</v>
@@ -29605,298 +29525,33 @@
         <v>8</v>
       </c>
       <c r="AR227">
+        <v>77</v>
+      </c>
+      <c r="AS227">
         <v>0</v>
       </c>
-      <c r="AS227">
-        <v>13</v>
-      </c>
       <c r="AT227">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="228" spans="1:46">
       <c r="A228" t="s">
-        <v>391</v>
-      </c>
-      <c r="B228" t="s">
-        <v>369</v>
-      </c>
-      <c r="C228" t="s">
-        <v>370</v>
-      </c>
-      <c r="D228" s="1">
-        <v>210000000000</v>
-      </c>
-      <c r="E228">
-        <v>37.271030000000003</v>
-      </c>
-      <c r="F228">
-        <v>-82.939971999999997</v>
-      </c>
-      <c r="G228" t="s">
-        <v>371</v>
-      </c>
-      <c r="H228" t="s">
-        <v>372</v>
-      </c>
-      <c r="I228">
-        <v>41834</v>
-      </c>
-      <c r="J228" t="s">
-        <v>225</v>
-      </c>
-      <c r="K228" t="s">
-        <v>373</v>
-      </c>
-      <c r="L228" t="s">
-        <v>374</v>
-      </c>
-      <c r="M228" t="s">
-        <v>8</v>
-      </c>
-      <c r="N228" t="s">
-        <v>8</v>
-      </c>
-      <c r="O228" t="s">
-        <v>8</v>
-      </c>
-      <c r="P228" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q228" t="s">
-        <v>8</v>
-      </c>
-      <c r="R228" t="s">
-        <v>8</v>
-      </c>
-      <c r="S228" t="s">
-        <v>164</v>
-      </c>
-      <c r="T228" t="s">
-        <v>8</v>
-      </c>
-      <c r="U228" t="s">
-        <v>8</v>
-      </c>
-      <c r="V228" t="s">
-        <v>101</v>
-      </c>
-      <c r="W228" t="s">
-        <v>98</v>
-      </c>
-      <c r="X228" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y228" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z228" t="s">
+        <v>426</v>
+      </c>
+      <c r="B228">
         <v>13</v>
       </c>
-      <c r="AA228" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB228" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC228">
-        <v>35</v>
-      </c>
-      <c r="AD228">
-        <v>444.12</v>
-      </c>
-      <c r="AE228">
-        <v>522.49</v>
-      </c>
-      <c r="AF228">
-        <v>22</v>
-      </c>
-      <c r="AG228" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH228" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI228" s="2">
-        <v>40645</v>
-      </c>
-      <c r="AJ228" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK228" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL228" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM228" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN228" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO228" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP228" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ228" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR228">
-        <v>100</v>
-      </c>
-      <c r="AS228">
-        <v>1</v>
-      </c>
-      <c r="AT228">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:46">
-      <c r="A229" t="s">
-        <v>388</v>
-      </c>
-      <c r="B229" t="s">
-        <v>369</v>
-      </c>
-      <c r="C229" t="s">
-        <v>370</v>
-      </c>
-      <c r="D229" s="1">
-        <v>210000000000</v>
-      </c>
-      <c r="E229">
-        <v>37.271030000000003</v>
-      </c>
-      <c r="F229">
-        <v>-82.939971999999997</v>
-      </c>
-      <c r="G229" t="s">
-        <v>371</v>
-      </c>
-      <c r="H229" t="s">
-        <v>372</v>
-      </c>
-      <c r="I229">
-        <v>41834</v>
-      </c>
-      <c r="J229" t="s">
-        <v>225</v>
-      </c>
-      <c r="K229" t="s">
-        <v>373</v>
-      </c>
-      <c r="L229" t="s">
-        <v>374</v>
-      </c>
-      <c r="M229" t="s">
-        <v>8</v>
-      </c>
-      <c r="N229" t="s">
-        <v>8</v>
-      </c>
-      <c r="O229" t="s">
-        <v>8</v>
-      </c>
-      <c r="P229" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q229" t="s">
-        <v>8</v>
-      </c>
-      <c r="R229" t="s">
-        <v>8</v>
-      </c>
-      <c r="S229" t="s">
-        <v>164</v>
-      </c>
-      <c r="T229" t="s">
-        <v>8</v>
-      </c>
-      <c r="U229" t="s">
-        <v>8</v>
-      </c>
-      <c r="V229" t="s">
-        <v>21</v>
-      </c>
-      <c r="W229" t="s">
-        <v>12</v>
-      </c>
-      <c r="X229" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y229" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z229" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA229" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB229" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC229">
-        <v>35</v>
-      </c>
-      <c r="AD229">
-        <v>520.66</v>
-      </c>
-      <c r="AE229">
-        <v>612.54</v>
-      </c>
-      <c r="AF229">
-        <v>20</v>
-      </c>
-      <c r="AG229" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH229" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI229" s="2">
-        <v>40858</v>
-      </c>
-      <c r="AJ229" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK229" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL229" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM229" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN229" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO229" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP229" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ229" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR229">
-        <v>37</v>
-      </c>
-      <c r="AS229">
-        <v>5</v>
-      </c>
-      <c r="AT229">
-        <v>2</v>
-      </c>
+      <c r="C228">
+        <v>15</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI228" s="2"/>
     </row>
     <row r="230" spans="1:46">
       <c r="A230" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B230" t="s">
         <v>369</v>
@@ -29959,19 +29614,13 @@
         <v>8</v>
       </c>
       <c r="V230" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="W230" t="s">
-        <v>12</v>
-      </c>
-      <c r="X230" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y230" t="s">
         <v>98</v>
       </c>
       <c r="Z230" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="AA230" t="s">
         <v>14</v>
@@ -29983,22 +29632,22 @@
         <v>35</v>
       </c>
       <c r="AD230">
-        <v>517.70000000000005</v>
+        <v>140.03</v>
       </c>
       <c r="AE230">
-        <v>609.05999999999995</v>
+        <v>164.74</v>
       </c>
       <c r="AF230">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG230" t="s">
         <v>9</v>
       </c>
       <c r="AH230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI230" s="2">
-        <v>40871</v>
+        <v>40607</v>
       </c>
       <c r="AJ230" t="s">
         <v>8</v>
@@ -30019,16 +29668,16 @@
         <v>9</v>
       </c>
       <c r="AP230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ230" t="s">
         <v>8</v>
       </c>
       <c r="AR230">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AS230">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AT230">
         <v>3</v>
@@ -30036,7 +29685,7 @@
     </row>
     <row r="231" spans="1:46">
       <c r="A231" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B231" t="s">
         <v>369</v>
@@ -30104,8 +29753,14 @@
       <c r="W231" t="s">
         <v>98</v>
       </c>
+      <c r="X231" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>29</v>
+      </c>
       <c r="Z231" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AA231" t="s">
         <v>14</v>
@@ -30117,13 +29772,13 @@
         <v>35</v>
       </c>
       <c r="AD231">
-        <v>351.42</v>
+        <v>444.12</v>
       </c>
       <c r="AE231">
-        <v>413.44</v>
+        <v>522.49</v>
       </c>
       <c r="AF231">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG231" t="s">
         <v>8</v>
@@ -30132,45 +29787,45 @@
         <v>8</v>
       </c>
       <c r="AI231" s="2">
-        <v>40906</v>
+        <v>40645</v>
       </c>
       <c r="AJ231" t="s">
         <v>8</v>
       </c>
       <c r="AK231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO231" t="s">
         <v>8</v>
       </c>
       <c r="AP231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ231" t="s">
         <v>8</v>
       </c>
       <c r="AR231">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AS231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:46">
       <c r="A232" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B232" t="s">
         <v>369</v>
@@ -30233,19 +29888,19 @@
         <v>8</v>
       </c>
       <c r="V232" t="s">
+        <v>21</v>
+      </c>
+      <c r="W232" t="s">
+        <v>12</v>
+      </c>
+      <c r="X232" t="s">
         <v>101</v>
       </c>
-      <c r="W232" t="s">
+      <c r="Y232" t="s">
         <v>98</v>
       </c>
-      <c r="X232" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y232" t="s">
-        <v>12</v>
-      </c>
       <c r="Z232" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="AA232" t="s">
         <v>14</v>
@@ -30257,34 +29912,34 @@
         <v>35</v>
       </c>
       <c r="AD232">
-        <v>841.36</v>
+        <v>520.66</v>
       </c>
       <c r="AE232">
-        <v>989.84</v>
+        <v>612.54</v>
       </c>
       <c r="AF232">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH232" t="s">
         <v>8</v>
       </c>
       <c r="AI232" s="2">
-        <v>40916</v>
+        <v>40858</v>
       </c>
       <c r="AJ232" t="s">
         <v>8</v>
       </c>
       <c r="AK232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL232" t="s">
         <v>9</v>
       </c>
       <c r="AM232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN232" t="s">
         <v>8</v>
@@ -30299,18 +29954,18 @@
         <v>8</v>
       </c>
       <c r="AR232">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AS232">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:46">
       <c r="A233" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B233" t="s">
         <v>369</v>
@@ -30373,16 +30028,16 @@
         <v>8</v>
       </c>
       <c r="V233" t="s">
+        <v>21</v>
+      </c>
+      <c r="W233" t="s">
+        <v>12</v>
+      </c>
+      <c r="X233" t="s">
         <v>101</v>
       </c>
-      <c r="W233" t="s">
+      <c r="Y233" t="s">
         <v>98</v>
-      </c>
-      <c r="X233" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y233" t="s">
-        <v>12</v>
       </c>
       <c r="Z233" t="s">
         <v>25</v>
@@ -30397,40 +30052,40 @@
         <v>35</v>
       </c>
       <c r="AD233">
-        <v>734.15</v>
+        <v>517.70000000000005</v>
       </c>
       <c r="AE233">
-        <v>863.71</v>
+        <v>609.05999999999995</v>
       </c>
       <c r="AF233">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH233" t="s">
         <v>8</v>
       </c>
       <c r="AI233" s="2">
-        <v>40917</v>
+        <v>40871</v>
       </c>
       <c r="AJ233" t="s">
         <v>8</v>
       </c>
       <c r="AK233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL233" t="s">
         <v>9</v>
       </c>
       <c r="AM233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN233" t="s">
         <v>8</v>
       </c>
       <c r="AO233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP233" t="s">
         <v>9</v>
@@ -30439,18 +30094,18 @@
         <v>8</v>
       </c>
       <c r="AR233">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AS233">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT233">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:46">
-      <c r="A234" s="1" t="s">
-        <v>380</v>
+      <c r="A234" t="s">
+        <v>389</v>
       </c>
       <c r="B234" t="s">
         <v>369</v>
@@ -30518,12 +30173,6 @@
       <c r="W234" t="s">
         <v>98</v>
       </c>
-      <c r="X234" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y234" t="s">
-        <v>12</v>
-      </c>
       <c r="Z234" t="s">
         <v>25</v>
       </c>
@@ -30537,13 +30186,13 @@
         <v>35</v>
       </c>
       <c r="AD234">
-        <v>1656.97</v>
+        <v>351.42</v>
       </c>
       <c r="AE234">
-        <v>1949.38</v>
+        <v>413.44</v>
       </c>
       <c r="AF234">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG234" t="s">
         <v>8</v>
@@ -30552,7 +30201,7 @@
         <v>8</v>
       </c>
       <c r="AI234" s="2">
-        <v>40939</v>
+        <v>40906</v>
       </c>
       <c r="AJ234" t="s">
         <v>8</v>
@@ -30590,7 +30239,7 @@
     </row>
     <row r="235" spans="1:46">
       <c r="A235" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="B235" t="s">
         <v>369</v>
@@ -30659,10 +30308,10 @@
         <v>98</v>
       </c>
       <c r="X235" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="Y235" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Z235" t="s">
         <v>25</v>
@@ -30677,13 +30326,13 @@
         <v>35</v>
       </c>
       <c r="AD235">
-        <v>923.63</v>
+        <v>841.36</v>
       </c>
       <c r="AE235">
-        <v>1086.6199999999999</v>
+        <v>989.84</v>
       </c>
       <c r="AF235">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG235" t="s">
         <v>8</v>
@@ -30692,7 +30341,7 @@
         <v>8</v>
       </c>
       <c r="AI235" s="2">
-        <v>40962</v>
+        <v>40916</v>
       </c>
       <c r="AJ235" t="s">
         <v>8</v>
@@ -30730,7 +30379,7 @@
     </row>
     <row r="236" spans="1:46">
       <c r="A236" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B236" t="s">
         <v>369</v>
@@ -30817,13 +30466,13 @@
         <v>35</v>
       </c>
       <c r="AD236">
-        <v>1059.24</v>
+        <v>734.15</v>
       </c>
       <c r="AE236">
-        <v>1246.1600000000001</v>
+        <v>863.71</v>
       </c>
       <c r="AF236">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG236" t="s">
         <v>8</v>
@@ -30832,21 +30481,45 @@
         <v>8</v>
       </c>
       <c r="AI236" s="2">
-        <v>40966</v>
+        <v>40917</v>
       </c>
       <c r="AJ236" t="s">
         <v>8</v>
       </c>
+      <c r="AK236" t="s">
+        <v>8</v>
+      </c>
       <c r="AL236" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM236" t="s">
         <v>8</v>
       </c>
       <c r="AN236" t="s">
         <v>8</v>
+      </c>
+      <c r="AO236" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP236" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ236" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR236">
+        <v>0</v>
+      </c>
+      <c r="AS236">
+        <v>0</v>
+      </c>
+      <c r="AT236">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:46">
-      <c r="A237" t="s">
-        <v>377</v>
+      <c r="A237" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="B237" t="s">
         <v>369</v>
@@ -30909,13 +30582,19 @@
         <v>8</v>
       </c>
       <c r="V237" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="W237" t="s">
+        <v>98</v>
+      </c>
+      <c r="X237" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y237" t="s">
         <v>12</v>
       </c>
       <c r="Z237" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AA237" t="s">
         <v>14</v>
@@ -30927,10 +30606,10 @@
         <v>35</v>
       </c>
       <c r="AD237">
-        <v>250.7</v>
+        <v>1656.97</v>
       </c>
       <c r="AE237">
-        <v>294.94</v>
+        <v>1949.38</v>
       </c>
       <c r="AF237">
         <v>20</v>
@@ -30942,21 +30621,45 @@
         <v>8</v>
       </c>
       <c r="AI237" s="2">
-        <v>40982</v>
+        <v>40939</v>
       </c>
       <c r="AJ237" t="s">
         <v>8</v>
       </c>
+      <c r="AK237" t="s">
+        <v>8</v>
+      </c>
       <c r="AL237" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM237" t="s">
         <v>8</v>
       </c>
       <c r="AN237" t="s">
         <v>8</v>
+      </c>
+      <c r="AO237" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP237" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ237" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR237">
+        <v>0</v>
+      </c>
+      <c r="AS237">
+        <v>0</v>
+      </c>
+      <c r="AT237">
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:46">
       <c r="A238" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B238" t="s">
         <v>369</v>
@@ -31025,10 +30728,10 @@
         <v>98</v>
       </c>
       <c r="X238" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="Y238" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="Z238" t="s">
         <v>25</v>
@@ -31040,16 +30743,16 @@
         <v>95</v>
       </c>
       <c r="AC238">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD238">
-        <v>227.69</v>
+        <v>923.63</v>
       </c>
       <c r="AE238">
-        <v>267.87</v>
+        <v>1086.6199999999999</v>
       </c>
       <c r="AF238">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AG238" t="s">
         <v>8</v>
@@ -31058,21 +30761,45 @@
         <v>8</v>
       </c>
       <c r="AI238" s="2">
-        <v>41133</v>
+        <v>40962</v>
       </c>
       <c r="AJ238" t="s">
         <v>8</v>
       </c>
+      <c r="AK238" t="s">
+        <v>8</v>
+      </c>
       <c r="AL238" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM238" t="s">
         <v>8</v>
       </c>
       <c r="AN238" t="s">
         <v>8</v>
+      </c>
+      <c r="AO238" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP238" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ238" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR238">
+        <v>0</v>
+      </c>
+      <c r="AS238">
+        <v>0</v>
+      </c>
+      <c r="AT238">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:46">
       <c r="A239" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B239" t="s">
         <v>369</v>
@@ -31147,7 +30874,7 @@
         <v>12</v>
       </c>
       <c r="Z239" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AA239" t="s">
         <v>14</v>
@@ -31156,63 +30883,39 @@
         <v>95</v>
       </c>
       <c r="AC239">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD239">
-        <v>665.44</v>
+        <v>1059.24</v>
       </c>
       <c r="AE239">
-        <v>782.87</v>
+        <v>1246.1600000000001</v>
       </c>
       <c r="AF239">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH239" t="s">
         <v>8</v>
       </c>
       <c r="AI239" s="2">
-        <v>41150</v>
+        <v>40966</v>
       </c>
       <c r="AJ239" t="s">
         <v>8</v>
       </c>
-      <c r="AK239" t="s">
-        <v>9</v>
-      </c>
       <c r="AL239" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN239" t="s">
         <v>8</v>
-      </c>
-      <c r="AO239" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP239" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ239" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR239">
-        <v>36</v>
-      </c>
-      <c r="AS239">
-        <v>4</v>
-      </c>
-      <c r="AT239">
-        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:46">
       <c r="A240" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B240" t="s">
         <v>369</v>
@@ -31275,19 +30978,13 @@
         <v>8</v>
       </c>
       <c r="V240" t="s">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="W240" t="s">
-        <v>29</v>
-      </c>
-      <c r="X240" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y240" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="Z240" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AA240" t="s">
         <v>14</v>
@@ -31296,63 +30993,39 @@
         <v>95</v>
       </c>
       <c r="AC240">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD240">
-        <v>413.11</v>
+        <v>250.7</v>
       </c>
       <c r="AE240">
-        <v>486.01</v>
+        <v>294.94</v>
       </c>
       <c r="AF240">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG240" t="s">
         <v>8</v>
       </c>
       <c r="AH240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI240" s="2">
-        <v>41223</v>
+        <v>40982</v>
       </c>
       <c r="AJ240" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL240" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN240" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO240" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP240" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ240" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR240">
-        <v>80</v>
-      </c>
-      <c r="AS240">
-        <v>1</v>
-      </c>
-      <c r="AT240">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:46">
       <c r="A241" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B241" t="s">
         <v>369</v>
@@ -31415,19 +31088,19 @@
         <v>8</v>
       </c>
       <c r="V241" t="s">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="W241" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="X241" t="s">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="Y241" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Z241" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="AA241" t="s">
         <v>14</v>
@@ -31439,60 +31112,36 @@
         <v>30</v>
       </c>
       <c r="AD241">
-        <v>385.02</v>
+        <v>227.69</v>
       </c>
       <c r="AE241">
-        <v>452.96</v>
+        <v>267.87</v>
       </c>
       <c r="AF241">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG241" t="s">
         <v>8</v>
       </c>
       <c r="AH241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI241" s="2">
-        <v>41243</v>
+        <v>41133</v>
       </c>
       <c r="AJ241" t="s">
         <v>8</v>
       </c>
-      <c r="AK241" t="s">
-        <v>9</v>
-      </c>
       <c r="AL241" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN241" t="s">
         <v>8</v>
-      </c>
-      <c r="AO241" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP241" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ241" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR241">
-        <v>0</v>
-      </c>
-      <c r="AS241">
-        <v>2</v>
-      </c>
-      <c r="AT241">
-        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:46">
       <c r="A242" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B242" t="s">
         <v>369</v>
@@ -31555,19 +31204,19 @@
         <v>8</v>
       </c>
       <c r="V242" t="s">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="W242" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="X242" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Y242" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="Z242" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AA242" t="s">
         <v>14</v>
@@ -31579,28 +31228,28 @@
         <v>30</v>
       </c>
       <c r="AD242">
-        <v>384.38</v>
+        <v>665.44</v>
       </c>
       <c r="AE242">
-        <v>452.21</v>
+        <v>782.87</v>
       </c>
       <c r="AF242">
         <v>22</v>
       </c>
       <c r="AG242" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH242" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI242" s="2">
-        <v>41251</v>
+        <v>41150</v>
       </c>
       <c r="AJ242" t="s">
         <v>8</v>
       </c>
       <c r="AK242" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL242" t="s">
         <v>9</v>
@@ -31621,18 +31270,18 @@
         <v>8</v>
       </c>
       <c r="AR242">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AS242">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT242">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:46">
       <c r="A243" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B243" t="s">
         <v>369</v>
@@ -31695,13 +31344,19 @@
         <v>8</v>
       </c>
       <c r="V243" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="W243" t="s">
-        <v>156</v>
+        <v>29</v>
+      </c>
+      <c r="X243" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>98</v>
       </c>
       <c r="Z243" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AA243" t="s">
         <v>14</v>
@@ -31713,10 +31368,10 @@
         <v>30</v>
       </c>
       <c r="AD243">
-        <v>258.17</v>
+        <v>413.11</v>
       </c>
       <c r="AE243">
-        <v>303.73</v>
+        <v>486.01</v>
       </c>
       <c r="AF243">
         <v>22</v>
@@ -31725,13 +31380,13 @@
         <v>8</v>
       </c>
       <c r="AH243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI243" s="2">
-        <v>41450</v>
+        <v>41223</v>
       </c>
       <c r="AJ243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK243" t="s">
         <v>9</v>
@@ -31743,30 +31398,30 @@
         <v>9</v>
       </c>
       <c r="AN243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO243" t="s">
         <v>8</v>
       </c>
       <c r="AP243" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ243" t="s">
         <v>8</v>
       </c>
       <c r="AR243">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AS243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:46">
       <c r="A244" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B244" t="s">
         <v>369</v>
@@ -31829,13 +31484,19 @@
         <v>8</v>
       </c>
       <c r="V244" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="W244" t="s">
         <v>29</v>
       </c>
+      <c r="X244" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>98</v>
+      </c>
       <c r="Z244" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AA244" t="s">
         <v>14</v>
@@ -31847,10 +31508,10 @@
         <v>30</v>
       </c>
       <c r="AD244">
-        <v>570.08000000000004</v>
+        <v>385.02</v>
       </c>
       <c r="AE244">
-        <v>670.68</v>
+        <v>452.96</v>
       </c>
       <c r="AF244">
         <v>22</v>
@@ -31859,48 +31520,48 @@
         <v>8</v>
       </c>
       <c r="AH244" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI244" s="2">
-        <v>41508</v>
+        <v>41243</v>
       </c>
       <c r="AJ244" t="s">
         <v>8</v>
       </c>
       <c r="AK244" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL244" t="s">
         <v>9</v>
       </c>
       <c r="AM244" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN244" t="s">
         <v>8</v>
       </c>
       <c r="AO244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP244" t="s">
         <v>9</v>
       </c>
       <c r="AQ244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR244">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AS244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT244">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:46">
       <c r="A245" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B245" t="s">
         <v>369</v>
@@ -31963,19 +31624,19 @@
         <v>8</v>
       </c>
       <c r="V245" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="W245" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="X245" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="Y245" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Z245" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="AA245" t="s">
         <v>14</v>
@@ -31987,10 +31648,10 @@
         <v>30</v>
       </c>
       <c r="AD245">
-        <v>793.06</v>
+        <v>384.38</v>
       </c>
       <c r="AE245">
-        <v>933.01</v>
+        <v>452.21</v>
       </c>
       <c r="AF245">
         <v>22</v>
@@ -31999,10 +31660,10 @@
         <v>8</v>
       </c>
       <c r="AH245" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI245" s="2">
-        <v>41534</v>
+        <v>41251</v>
       </c>
       <c r="AJ245" t="s">
         <v>8</v>
@@ -32036,44 +31697,178 @@
       </c>
       <c r="AT245">
         <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:46">
+      <c r="A246" t="s">
+        <v>376</v>
+      </c>
+      <c r="B246" t="s">
+        <v>369</v>
+      </c>
+      <c r="C246" t="s">
+        <v>370</v>
+      </c>
+      <c r="D246" s="1">
+        <v>210000000000</v>
+      </c>
+      <c r="E246">
+        <v>37.271030000000003</v>
+      </c>
+      <c r="F246">
+        <v>-82.939971999999997</v>
+      </c>
+      <c r="G246" t="s">
+        <v>371</v>
+      </c>
+      <c r="H246" t="s">
+        <v>372</v>
+      </c>
+      <c r="I246">
+        <v>41834</v>
+      </c>
+      <c r="J246" t="s">
+        <v>225</v>
+      </c>
+      <c r="K246" t="s">
+        <v>373</v>
+      </c>
+      <c r="L246" t="s">
+        <v>374</v>
+      </c>
+      <c r="M246" t="s">
+        <v>8</v>
+      </c>
+      <c r="N246" t="s">
+        <v>8</v>
+      </c>
+      <c r="O246" t="s">
+        <v>8</v>
+      </c>
+      <c r="P246" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>8</v>
+      </c>
+      <c r="R246" t="s">
+        <v>8</v>
+      </c>
+      <c r="S246" t="s">
+        <v>164</v>
+      </c>
+      <c r="T246" t="s">
+        <v>8</v>
+      </c>
+      <c r="U246" t="s">
+        <v>8</v>
+      </c>
+      <c r="V246" t="s">
+        <v>155</v>
+      </c>
+      <c r="W246" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC246">
+        <v>30</v>
+      </c>
+      <c r="AD246">
+        <v>258.17</v>
+      </c>
+      <c r="AE246">
+        <v>303.73</v>
+      </c>
+      <c r="AF246">
+        <v>22</v>
+      </c>
+      <c r="AG246" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH246" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI246" s="2">
+        <v>41450</v>
+      </c>
+      <c r="AJ246" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK246" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL246" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM246" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN246" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO246" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP246" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ246" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR246">
+        <v>50</v>
+      </c>
+      <c r="AS246">
+        <v>3</v>
+      </c>
+      <c r="AT246">
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:46">
       <c r="A247" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="B247" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="C247" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="D247" s="1">
-        <v>360000000000</v>
+        <v>210000000000</v>
       </c>
       <c r="E247">
-        <v>40.844242999999999</v>
+        <v>37.271030000000003</v>
       </c>
       <c r="F247">
-        <v>-73.907792999999998</v>
+        <v>-82.939971999999997</v>
       </c>
       <c r="G247" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="H247" t="s">
-        <v>89</v>
+        <v>372</v>
       </c>
       <c r="I247">
-        <v>10457</v>
+        <v>41834</v>
       </c>
       <c r="J247" t="s">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="K247" t="s">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="L247" t="s">
-        <v>195</v>
+        <v>374</v>
       </c>
       <c r="M247" t="s">
         <v>8</v>
@@ -32094,37 +31889,40 @@
         <v>8</v>
       </c>
       <c r="S247" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="T247" t="s">
         <v>8</v>
       </c>
       <c r="U247" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V247" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="W247" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="Z247" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="AA247" t="s">
         <v>14</v>
       </c>
       <c r="AB247" t="s">
-        <v>15</v>
+        <v>95</v>
+      </c>
+      <c r="AC247">
+        <v>30</v>
       </c>
       <c r="AD247">
-        <v>805.65</v>
+        <v>570.08000000000004</v>
       </c>
       <c r="AE247">
-        <v>982.5</v>
+        <v>670.68</v>
       </c>
       <c r="AF247">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG247" t="s">
         <v>8</v>
@@ -32133,54 +31931,78 @@
         <v>8</v>
       </c>
       <c r="AI247" s="2">
-        <v>38602</v>
+        <v>41508</v>
       </c>
       <c r="AJ247" t="s">
         <v>8</v>
       </c>
+      <c r="AK247" t="s">
+        <v>8</v>
+      </c>
       <c r="AL247" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM247" t="s">
         <v>8</v>
       </c>
       <c r="AN247" t="s">
         <v>8</v>
+      </c>
+      <c r="AO247" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP247" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ247" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR247">
+        <v>50</v>
+      </c>
+      <c r="AS247">
+        <v>0</v>
+      </c>
+      <c r="AT247">
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:46">
       <c r="A248" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="B248" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="C248" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="D248" s="1">
-        <v>360000000000</v>
+        <v>210000000000</v>
       </c>
       <c r="E248">
-        <v>40.844242999999999</v>
+        <v>37.271030000000003</v>
       </c>
       <c r="F248">
-        <v>-73.907792999999998</v>
+        <v>-82.939971999999997</v>
       </c>
       <c r="G248" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="H248" t="s">
-        <v>89</v>
+        <v>372</v>
       </c>
       <c r="I248">
-        <v>10457</v>
+        <v>41834</v>
       </c>
       <c r="J248" t="s">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="K248" t="s">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="L248" t="s">
-        <v>195</v>
+        <v>374</v>
       </c>
       <c r="M248" t="s">
         <v>8</v>
@@ -32201,40 +32023,46 @@
         <v>8</v>
       </c>
       <c r="S248" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="T248" t="s">
         <v>8</v>
       </c>
       <c r="U248" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V248" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="W248" t="s">
-        <v>34</v>
+        <v>93</v>
+      </c>
+      <c r="X248" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>93</v>
       </c>
       <c r="Z248" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="AA248" t="s">
         <v>14</v>
       </c>
       <c r="AB248" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AC248">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AD248">
-        <v>205</v>
+        <v>793.06</v>
       </c>
       <c r="AE248">
-        <v>250</v>
+        <v>933.01</v>
       </c>
       <c r="AF248">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AG248" t="s">
         <v>8</v>
@@ -32243,295 +32071,60 @@
         <v>8</v>
       </c>
       <c r="AI248" s="2">
-        <v>39314</v>
+        <v>41534</v>
       </c>
       <c r="AJ248" t="s">
         <v>8</v>
       </c>
+      <c r="AK248" t="s">
+        <v>8</v>
+      </c>
       <c r="AL248" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="AM248" t="s">
+        <v>9</v>
       </c>
       <c r="AN248" t="s">
         <v>8</v>
+      </c>
+      <c r="AO248" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP248" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ248" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR248">
+        <v>0</v>
+      </c>
+      <c r="AS248">
+        <v>0</v>
+      </c>
+      <c r="AT248">
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:46">
       <c r="A249" t="s">
-        <v>413</v>
-      </c>
-      <c r="B249" t="s">
-        <v>394</v>
-      </c>
-      <c r="C249" t="s">
-        <v>399</v>
-      </c>
-      <c r="D249" s="1">
-        <v>360000000000</v>
-      </c>
-      <c r="E249">
-        <v>40.844242999999999</v>
-      </c>
-      <c r="F249">
-        <v>-73.907792999999998</v>
-      </c>
-      <c r="G249" t="s">
-        <v>195</v>
-      </c>
-      <c r="H249" t="s">
-        <v>89</v>
-      </c>
-      <c r="I249">
-        <v>10457</v>
-      </c>
-      <c r="J249" t="s">
-        <v>5</v>
-      </c>
-      <c r="K249" t="s">
-        <v>90</v>
-      </c>
-      <c r="L249" t="s">
-        <v>195</v>
-      </c>
-      <c r="M249" t="s">
-        <v>8</v>
-      </c>
-      <c r="N249" t="s">
-        <v>8</v>
-      </c>
-      <c r="O249" t="s">
-        <v>8</v>
-      </c>
-      <c r="P249" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q249" t="s">
-        <v>8</v>
-      </c>
-      <c r="R249" t="s">
-        <v>8</v>
-      </c>
-      <c r="S249" t="s">
-        <v>10</v>
-      </c>
-      <c r="T249" t="s">
-        <v>8</v>
-      </c>
-      <c r="U249" t="s">
-        <v>9</v>
-      </c>
-      <c r="V249" t="s">
-        <v>92</v>
-      </c>
-      <c r="W249" t="s">
-        <v>93</v>
-      </c>
-      <c r="X249" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y249" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z249" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA249" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB249" t="s">
+        <v>427</v>
+      </c>
+      <c r="B249">
         <v>15</v>
       </c>
-      <c r="AC249">
-        <v>17</v>
-      </c>
-      <c r="AD249">
-        <v>1701</v>
-      </c>
-      <c r="AE249">
-        <v>2074.39</v>
-      </c>
-      <c r="AF249">
-        <v>100</v>
-      </c>
-      <c r="AG249" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH249" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI249" s="2">
-        <v>39687</v>
-      </c>
-      <c r="AJ249" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK249" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL249" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM249" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN249" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO249" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP249" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ249" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS249">
-        <v>0</v>
-      </c>
-      <c r="AT249">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:46">
-      <c r="A250" t="s">
-        <v>406</v>
-      </c>
-      <c r="B250" t="s">
-        <v>394</v>
-      </c>
-      <c r="C250" t="s">
-        <v>399</v>
-      </c>
-      <c r="D250" s="1">
-        <v>360000000000</v>
-      </c>
-      <c r="E250">
-        <v>40.844242999999999</v>
-      </c>
-      <c r="F250">
-        <v>-73.907792999999998</v>
-      </c>
-      <c r="G250" t="s">
-        <v>195</v>
-      </c>
-      <c r="H250" t="s">
-        <v>89</v>
-      </c>
-      <c r="I250">
-        <v>10457</v>
-      </c>
-      <c r="J250" t="s">
-        <v>5</v>
-      </c>
-      <c r="K250" t="s">
-        <v>90</v>
-      </c>
-      <c r="L250" t="s">
-        <v>195</v>
-      </c>
-      <c r="M250" t="s">
-        <v>8</v>
-      </c>
-      <c r="N250" t="s">
-        <v>8</v>
-      </c>
-      <c r="O250" t="s">
-        <v>8</v>
-      </c>
-      <c r="P250" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q250" t="s">
-        <v>8</v>
-      </c>
-      <c r="R250" t="s">
-        <v>8</v>
-      </c>
-      <c r="S250" t="s">
-        <v>10</v>
-      </c>
-      <c r="T250" t="s">
-        <v>8</v>
-      </c>
-      <c r="U250" t="s">
-        <v>9</v>
-      </c>
-      <c r="V250" t="s">
-        <v>101</v>
-      </c>
-      <c r="W250" t="s">
-        <v>98</v>
-      </c>
-      <c r="X250" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y250" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z250" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA250" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB250" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC250">
-        <v>17</v>
-      </c>
-      <c r="AD250">
-        <v>237</v>
-      </c>
-      <c r="AE250">
-        <v>289.02</v>
-      </c>
-      <c r="AF250">
-        <v>25</v>
-      </c>
-      <c r="AG250" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH250" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI250" s="2">
-        <v>39765</v>
-      </c>
-      <c r="AJ250" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK250" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL250" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM250" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN250" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO250" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP250" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ250" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS250">
-        <v>0</v>
-      </c>
-      <c r="AT250">
-        <v>2</v>
-      </c>
+      <c r="C249">
+        <v>19</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI249" s="2"/>
     </row>
     <row r="251" spans="1:46">
       <c r="A251" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B251" t="s">
         <v>394</v>
@@ -32594,19 +32187,13 @@
         <v>9</v>
       </c>
       <c r="V251" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="W251" t="s">
-        <v>98</v>
-      </c>
-      <c r="X251" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y251" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="Z251" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="AA251" t="s">
         <v>14</v>
@@ -32614,88 +32201,61 @@
       <c r="AB251" t="s">
         <v>15</v>
       </c>
-      <c r="AC251">
-        <v>9</v>
-      </c>
       <c r="AD251">
-        <v>226.71</v>
+        <v>805.65</v>
       </c>
       <c r="AE251">
-        <v>276.48</v>
+        <v>982.5</v>
       </c>
       <c r="AF251">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG251" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH251" t="s">
         <v>8</v>
       </c>
       <c r="AI251" s="2">
-        <v>40010</v>
+        <v>38602</v>
       </c>
       <c r="AJ251" t="s">
         <v>8</v>
       </c>
-      <c r="AK251" t="s">
-        <v>8</v>
-      </c>
       <c r="AL251" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM251" t="s">
         <v>8</v>
       </c>
       <c r="AN251" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO251" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP251" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ251" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR251">
-        <v>100</v>
-      </c>
-      <c r="AS251">
-        <v>0</v>
-      </c>
-      <c r="AT251">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:46">
       <c r="A252" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="B252" t="s">
         <v>394</v>
       </c>
       <c r="C252" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D252" s="1">
         <v>360000000000</v>
       </c>
       <c r="E252">
-        <v>40.797415999999998</v>
+        <v>40.844242999999999</v>
       </c>
       <c r="F252">
-        <v>-73.931111000000001</v>
+        <v>-73.907792999999998</v>
       </c>
       <c r="G252" t="s">
-        <v>396</v>
+        <v>195</v>
       </c>
       <c r="H252" t="s">
         <v>89</v>
       </c>
       <c r="I252">
-        <v>10035</v>
+        <v>10457</v>
       </c>
       <c r="J252" t="s">
         <v>5</v>
@@ -32704,7 +32264,7 @@
         <v>90</v>
       </c>
       <c r="L252" t="s">
-        <v>397</v>
+        <v>195</v>
       </c>
       <c r="M252" t="s">
         <v>8</v>
@@ -32734,19 +32294,13 @@
         <v>9</v>
       </c>
       <c r="V252" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="W252" t="s">
         <v>34</v>
       </c>
-      <c r="X252" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y252" t="s">
-        <v>12</v>
-      </c>
       <c r="Z252" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="AA252" t="s">
         <v>14</v>
@@ -32755,16 +32309,16 @@
         <v>15</v>
       </c>
       <c r="AC252">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AD252">
-        <v>317.25</v>
+        <v>205</v>
       </c>
       <c r="AE252">
-        <v>373.24</v>
+        <v>250</v>
       </c>
       <c r="AF252">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AG252" t="s">
         <v>8</v>
@@ -32773,69 +32327,45 @@
         <v>8</v>
       </c>
       <c r="AI252" s="2">
-        <v>40421</v>
+        <v>39314</v>
       </c>
       <c r="AJ252" t="s">
         <v>8</v>
       </c>
-      <c r="AK252" t="s">
-        <v>8</v>
-      </c>
       <c r="AL252" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM252" t="s">
         <v>8</v>
       </c>
       <c r="AN252" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO252" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP252" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ252" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR252">
-        <v>100</v>
-      </c>
-      <c r="AS252">
-        <v>0</v>
-      </c>
-      <c r="AT252">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:46">
       <c r="A253" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="B253" t="s">
         <v>394</v>
       </c>
       <c r="C253" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D253" s="1">
         <v>360000000000</v>
       </c>
       <c r="E253">
-        <v>40.797415999999998</v>
+        <v>40.844242999999999</v>
       </c>
       <c r="F253">
-        <v>-73.931111000000001</v>
+        <v>-73.907792999999998</v>
       </c>
       <c r="G253" t="s">
-        <v>396</v>
+        <v>195</v>
       </c>
       <c r="H253" t="s">
         <v>89</v>
       </c>
       <c r="I253">
-        <v>10035</v>
+        <v>10457</v>
       </c>
       <c r="J253" t="s">
         <v>5</v>
@@ -32844,7 +32374,7 @@
         <v>90</v>
       </c>
       <c r="L253" t="s">
-        <v>397</v>
+        <v>195</v>
       </c>
       <c r="M253" t="s">
         <v>8</v>
@@ -32874,19 +32404,19 @@
         <v>9</v>
       </c>
       <c r="V253" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="W253" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="X253" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="Y253" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="Z253" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="AA253" t="s">
         <v>14</v>
@@ -32895,16 +32425,16 @@
         <v>15</v>
       </c>
       <c r="AC253">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AD253">
-        <v>275.20999999999998</v>
+        <v>1701</v>
       </c>
       <c r="AE253">
-        <v>323.77999999999997</v>
+        <v>2074.39</v>
       </c>
       <c r="AF253">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="AG253" t="s">
         <v>8</v>
@@ -32913,7 +32443,7 @@
         <v>8</v>
       </c>
       <c r="AI253" s="2">
-        <v>40455</v>
+        <v>39687</v>
       </c>
       <c r="AJ253" t="s">
         <v>8</v>
@@ -32931,7 +32461,7 @@
         <v>8</v>
       </c>
       <c r="AO253" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP253" t="s">
         <v>9</v>
@@ -32943,36 +32473,36 @@
         <v>0</v>
       </c>
       <c r="AT253">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:46">
       <c r="A254" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B254" t="s">
         <v>394</v>
       </c>
       <c r="C254" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D254" s="1">
         <v>360000000000</v>
       </c>
       <c r="E254">
-        <v>40.797415999999998</v>
+        <v>40.844242999999999</v>
       </c>
       <c r="F254">
-        <v>-73.931111000000001</v>
+        <v>-73.907792999999998</v>
       </c>
       <c r="G254" t="s">
-        <v>396</v>
+        <v>195</v>
       </c>
       <c r="H254" t="s">
         <v>89</v>
       </c>
       <c r="I254">
-        <v>10035</v>
+        <v>10457</v>
       </c>
       <c r="J254" t="s">
         <v>5</v>
@@ -32981,7 +32511,7 @@
         <v>90</v>
       </c>
       <c r="L254" t="s">
-        <v>397</v>
+        <v>195</v>
       </c>
       <c r="M254" t="s">
         <v>8</v>
@@ -33011,16 +32541,16 @@
         <v>9</v>
       </c>
       <c r="V254" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="W254" t="s">
+        <v>98</v>
+      </c>
+      <c r="X254" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y254" t="s">
         <v>12</v>
-      </c>
-      <c r="X254" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y254" t="s">
-        <v>98</v>
       </c>
       <c r="Z254" t="s">
         <v>13</v>
@@ -33032,25 +32562,25 @@
         <v>15</v>
       </c>
       <c r="AC254">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AD254">
-        <v>440.2</v>
+        <v>237</v>
       </c>
       <c r="AE254">
-        <v>517.88</v>
+        <v>289.02</v>
       </c>
       <c r="AF254">
         <v>25</v>
       </c>
       <c r="AG254" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH254" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI254" s="2">
-        <v>40536</v>
+        <v>39765</v>
       </c>
       <c r="AJ254" t="s">
         <v>8</v>
@@ -33065,7 +32595,7 @@
         <v>8</v>
       </c>
       <c r="AN254" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO254" t="s">
         <v>8</v>
@@ -33075,9 +32605,6 @@
       </c>
       <c r="AQ254" t="s">
         <v>8</v>
-      </c>
-      <c r="AR254">
-        <v>66</v>
       </c>
       <c r="AS254">
         <v>0</v>
@@ -33088,22 +32615,22 @@
     </row>
     <row r="255" spans="1:46">
       <c r="A255" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B255" t="s">
         <v>394</v>
       </c>
       <c r="C255" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D255" s="1">
         <v>360000000000</v>
       </c>
       <c r="E255">
-        <v>40.828574000000003</v>
+        <v>40.844242999999999</v>
       </c>
       <c r="F255">
-        <v>-73.917726999999999</v>
+        <v>-73.907792999999998</v>
       </c>
       <c r="G255" t="s">
         <v>195</v>
@@ -33112,7 +32639,7 @@
         <v>89</v>
       </c>
       <c r="I255">
-        <v>10456</v>
+        <v>10457</v>
       </c>
       <c r="J255" t="s">
         <v>5</v>
@@ -33157,13 +32684,13 @@
         <v>98</v>
       </c>
       <c r="X255" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="Y255" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="Z255" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="AA255" t="s">
         <v>14</v>
@@ -33172,25 +32699,25 @@
         <v>15</v>
       </c>
       <c r="AC255">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="AD255">
-        <v>267.33</v>
+        <v>226.71</v>
       </c>
       <c r="AE255">
-        <v>314.51</v>
+        <v>276.48</v>
       </c>
       <c r="AF255">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AG255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH255" t="s">
         <v>8</v>
       </c>
       <c r="AI255" s="2">
-        <v>40846</v>
+        <v>40010</v>
       </c>
       <c r="AJ255" t="s">
         <v>8</v>
@@ -33202,13 +32729,13 @@
         <v>9</v>
       </c>
       <c r="AM255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP255" t="s">
         <v>9</v>
@@ -33217,42 +32744,42 @@
         <v>8</v>
       </c>
       <c r="AR255">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AS255">
         <v>0</v>
       </c>
       <c r="AT255">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:46">
       <c r="A256" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B256" t="s">
         <v>394</v>
       </c>
       <c r="C256" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D256" s="1">
         <v>360000000000</v>
       </c>
       <c r="E256">
-        <v>40.828574000000003</v>
+        <v>40.797415999999998</v>
       </c>
       <c r="F256">
-        <v>-73.917726999999999</v>
+        <v>-73.931111000000001</v>
       </c>
       <c r="G256" t="s">
-        <v>195</v>
+        <v>396</v>
       </c>
       <c r="H256" t="s">
         <v>89</v>
       </c>
       <c r="I256">
-        <v>10456</v>
+        <v>10035</v>
       </c>
       <c r="J256" t="s">
         <v>5</v>
@@ -33261,7 +32788,7 @@
         <v>90</v>
       </c>
       <c r="L256" t="s">
-        <v>195</v>
+        <v>397</v>
       </c>
       <c r="M256" t="s">
         <v>8</v>
@@ -33291,16 +32818,16 @@
         <v>9</v>
       </c>
       <c r="V256" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="W256" t="s">
         <v>34</v>
       </c>
       <c r="X256" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Y256" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="Z256" t="s">
         <v>25</v>
@@ -33315,13 +32842,13 @@
         <v>35</v>
       </c>
       <c r="AD256">
-        <v>2065</v>
+        <v>317.25</v>
       </c>
       <c r="AE256">
-        <v>2429.41</v>
+        <v>373.24</v>
       </c>
       <c r="AF256">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG256" t="s">
         <v>8</v>
@@ -33330,45 +32857,69 @@
         <v>8</v>
       </c>
       <c r="AI256" s="2">
-        <v>40877</v>
+        <v>40421</v>
       </c>
       <c r="AJ256" t="s">
         <v>8</v>
       </c>
+      <c r="AK256" t="s">
+        <v>8</v>
+      </c>
       <c r="AL256" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM256" t="s">
         <v>8</v>
       </c>
       <c r="AN256" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="AO256" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP256" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ256" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR256">
+        <v>100</v>
+      </c>
+      <c r="AS256">
+        <v>0</v>
+      </c>
+      <c r="AT256">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:46">
       <c r="A257" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B257" t="s">
         <v>394</v>
       </c>
       <c r="C257" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D257" s="1">
         <v>360000000000</v>
       </c>
       <c r="E257">
-        <v>40.828574000000003</v>
+        <v>40.797415999999998</v>
       </c>
       <c r="F257">
-        <v>-73.917726999999999</v>
+        <v>-73.931111000000001</v>
       </c>
       <c r="G257" t="s">
-        <v>195</v>
+        <v>396</v>
       </c>
       <c r="H257" t="s">
         <v>89</v>
       </c>
       <c r="I257">
-        <v>10456</v>
+        <v>10035</v>
       </c>
       <c r="J257" t="s">
         <v>5</v>
@@ -33377,7 +32928,7 @@
         <v>90</v>
       </c>
       <c r="L257" t="s">
-        <v>195</v>
+        <v>397</v>
       </c>
       <c r="M257" t="s">
         <v>8</v>
@@ -33413,10 +32964,10 @@
         <v>98</v>
       </c>
       <c r="X257" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="Y257" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="Z257" t="s">
         <v>99</v>
@@ -33431,13 +32982,13 @@
         <v>35</v>
       </c>
       <c r="AD257">
-        <v>484.04</v>
+        <v>275.20999999999998</v>
       </c>
       <c r="AE257">
-        <v>569.46</v>
+        <v>323.77999999999997</v>
       </c>
       <c r="AF257">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG257" t="s">
         <v>8</v>
@@ -33446,7 +32997,7 @@
         <v>8</v>
       </c>
       <c r="AI257" s="2">
-        <v>40930</v>
+        <v>40455</v>
       </c>
       <c r="AJ257" t="s">
         <v>8</v>
@@ -33458,57 +33009,54 @@
         <v>9</v>
       </c>
       <c r="AM257" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP257" t="s">
         <v>9</v>
       </c>
       <c r="AQ257" t="s">
         <v>8</v>
-      </c>
-      <c r="AR257">
-        <v>75</v>
       </c>
       <c r="AS257">
         <v>0</v>
       </c>
       <c r="AT257">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:46">
       <c r="A258" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B258" t="s">
         <v>394</v>
       </c>
       <c r="C258" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D258" s="1">
         <v>360000000000</v>
       </c>
       <c r="E258">
-        <v>40.828574000000003</v>
+        <v>40.797415999999998</v>
       </c>
       <c r="F258">
-        <v>-73.917726999999999</v>
+        <v>-73.931111000000001</v>
       </c>
       <c r="G258" t="s">
-        <v>195</v>
+        <v>396</v>
       </c>
       <c r="H258" t="s">
         <v>89</v>
       </c>
       <c r="I258">
-        <v>10456</v>
+        <v>10035</v>
       </c>
       <c r="J258" t="s">
         <v>5</v>
@@ -33517,7 +33065,7 @@
         <v>90</v>
       </c>
       <c r="L258" t="s">
-        <v>195</v>
+        <v>397</v>
       </c>
       <c r="M258" t="s">
         <v>8</v>
@@ -33547,19 +33095,19 @@
         <v>9</v>
       </c>
       <c r="V258" t="s">
+        <v>106</v>
+      </c>
+      <c r="W258" t="s">
+        <v>12</v>
+      </c>
+      <c r="X258" t="s">
         <v>101</v>
       </c>
-      <c r="W258" t="s">
+      <c r="Y258" t="s">
         <v>98</v>
       </c>
-      <c r="X258" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y258" t="s">
-        <v>12</v>
-      </c>
       <c r="Z258" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="AA258" t="s">
         <v>14</v>
@@ -33571,36 +33119,60 @@
         <v>35</v>
       </c>
       <c r="AD258">
-        <v>449.09</v>
+        <v>440.2</v>
       </c>
       <c r="AE258">
-        <v>528.34</v>
+        <v>517.88</v>
       </c>
       <c r="AF258">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AG258" t="s">
         <v>8</v>
       </c>
       <c r="AH258" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI258" s="2">
-        <v>41070</v>
+        <v>40536</v>
       </c>
       <c r="AJ258" t="s">
         <v>8</v>
       </c>
+      <c r="AK258" t="s">
+        <v>8</v>
+      </c>
       <c r="AL258" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM258" t="s">
         <v>8</v>
       </c>
       <c r="AN258" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="AO258" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP258" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ258" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR258">
+        <v>66</v>
+      </c>
+      <c r="AS258">
+        <v>0</v>
+      </c>
+      <c r="AT258">
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:46">
       <c r="A259" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B259" t="s">
         <v>394</v>
@@ -33663,10 +33235,10 @@
         <v>9</v>
       </c>
       <c r="V259" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="W259" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="X259" t="s">
         <v>97</v>
@@ -33675,7 +33247,7 @@
         <v>98</v>
       </c>
       <c r="Z259" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="AA259" t="s">
         <v>14</v>
@@ -33684,17 +33256,17 @@
         <v>15</v>
       </c>
       <c r="AC259">
+        <v>35</v>
+      </c>
+      <c r="AD259">
+        <v>267.33</v>
+      </c>
+      <c r="AE259">
+        <v>314.51</v>
+      </c>
+      <c r="AF259">
         <v>30</v>
       </c>
-      <c r="AD259">
-        <v>275.18</v>
-      </c>
-      <c r="AE259">
-        <v>323.74</v>
-      </c>
-      <c r="AF259">
-        <v>25</v>
-      </c>
       <c r="AG259" t="s">
         <v>8</v>
       </c>
@@ -33702,7 +33274,7 @@
         <v>8</v>
       </c>
       <c r="AI259" s="2">
-        <v>41236</v>
+        <v>40846</v>
       </c>
       <c r="AJ259" t="s">
         <v>8</v>
@@ -33720,24 +33292,27 @@
         <v>8</v>
       </c>
       <c r="AO259" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP259" t="s">
         <v>9</v>
       </c>
       <c r="AQ259" t="s">
         <v>8</v>
+      </c>
+      <c r="AR259">
+        <v>50</v>
       </c>
       <c r="AS259">
         <v>0</v>
       </c>
       <c r="AT259">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:46">
       <c r="A260" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B260" t="s">
         <v>394</v>
@@ -33800,10 +33375,10 @@
         <v>9</v>
       </c>
       <c r="V260" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="W260" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="X260" t="s">
         <v>101</v>
@@ -33821,63 +33396,39 @@
         <v>15</v>
       </c>
       <c r="AC260">
+        <v>35</v>
+      </c>
+      <c r="AD260">
+        <v>2065</v>
+      </c>
+      <c r="AE260">
+        <v>2429.41</v>
+      </c>
+      <c r="AF260">
         <v>30</v>
       </c>
-      <c r="AD260">
-        <v>445.75</v>
-      </c>
-      <c r="AE260">
-        <v>524.41</v>
-      </c>
-      <c r="AF260">
-        <v>25</v>
-      </c>
       <c r="AG260" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH260" t="s">
         <v>8</v>
       </c>
       <c r="AI260" s="2">
-        <v>41512</v>
+        <v>40877</v>
       </c>
       <c r="AJ260" t="s">
         <v>8</v>
       </c>
-      <c r="AK260" t="s">
-        <v>8</v>
-      </c>
       <c r="AL260" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM260" t="s">
         <v>8</v>
       </c>
       <c r="AN260" t="s">
         <v>8</v>
-      </c>
-      <c r="AO260" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP260" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ260" t="s">
-        <v>8</v>
-      </c>
-      <c r="AR260">
-        <v>50</v>
-      </c>
-      <c r="AS260">
-        <v>0</v>
-      </c>
-      <c r="AT260">
-        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:46">
       <c r="A261" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B261" t="s">
         <v>394</v>
@@ -33952,7 +33503,7 @@
         <v>12</v>
       </c>
       <c r="Z261" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="AA261" t="s">
         <v>14</v>
@@ -33961,17 +33512,17 @@
         <v>15</v>
       </c>
       <c r="AC261">
+        <v>35</v>
+      </c>
+      <c r="AD261">
+        <v>484.04</v>
+      </c>
+      <c r="AE261">
+        <v>569.46</v>
+      </c>
+      <c r="AF261">
         <v>30</v>
       </c>
-      <c r="AD261">
-        <v>243.6</v>
-      </c>
-      <c r="AE261">
-        <v>286.58999999999997</v>
-      </c>
-      <c r="AF261">
-        <v>25</v>
-      </c>
       <c r="AG261" t="s">
         <v>8</v>
       </c>
@@ -33979,7 +33530,7 @@
         <v>8</v>
       </c>
       <c r="AI261" s="2">
-        <v>41555</v>
+        <v>40930</v>
       </c>
       <c r="AJ261" t="s">
         <v>8</v>
@@ -33997,7 +33548,7 @@
         <v>9</v>
       </c>
       <c r="AO261" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP261" t="s">
         <v>9</v>
@@ -34006,13 +33557,579 @@
         <v>8</v>
       </c>
       <c r="AR261">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AS261">
         <v>0</v>
       </c>
       <c r="AT261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:46">
+      <c r="A262" t="s">
+        <v>408</v>
+      </c>
+      <c r="B262" t="s">
+        <v>394</v>
+      </c>
+      <c r="C262" t="s">
+        <v>402</v>
+      </c>
+      <c r="D262" s="1">
+        <v>360000000000</v>
+      </c>
+      <c r="E262">
+        <v>40.828574000000003</v>
+      </c>
+      <c r="F262">
+        <v>-73.917726999999999</v>
+      </c>
+      <c r="G262" t="s">
+        <v>195</v>
+      </c>
+      <c r="H262" t="s">
+        <v>89</v>
+      </c>
+      <c r="I262">
+        <v>10456</v>
+      </c>
+      <c r="J262" t="s">
+        <v>5</v>
+      </c>
+      <c r="K262" t="s">
+        <v>90</v>
+      </c>
+      <c r="L262" t="s">
+        <v>195</v>
+      </c>
+      <c r="M262" t="s">
+        <v>8</v>
+      </c>
+      <c r="N262" t="s">
+        <v>8</v>
+      </c>
+      <c r="O262" t="s">
+        <v>8</v>
+      </c>
+      <c r="P262" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>8</v>
+      </c>
+      <c r="R262" t="s">
+        <v>8</v>
+      </c>
+      <c r="S262" t="s">
+        <v>10</v>
+      </c>
+      <c r="T262" t="s">
+        <v>8</v>
+      </c>
+      <c r="U262" t="s">
+        <v>9</v>
+      </c>
+      <c r="V262" t="s">
+        <v>101</v>
+      </c>
+      <c r="W262" t="s">
+        <v>98</v>
+      </c>
+      <c r="X262" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z262" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC262">
+        <v>35</v>
+      </c>
+      <c r="AD262">
+        <v>449.09</v>
+      </c>
+      <c r="AE262">
+        <v>528.34</v>
+      </c>
+      <c r="AF262">
+        <v>30</v>
+      </c>
+      <c r="AG262" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH262" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI262" s="2">
+        <v>41070</v>
+      </c>
+      <c r="AJ262" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL262" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:46">
+      <c r="A263" t="s">
+        <v>409</v>
+      </c>
+      <c r="B263" t="s">
+        <v>394</v>
+      </c>
+      <c r="C263" t="s">
+        <v>402</v>
+      </c>
+      <c r="D263" s="1">
+        <v>360000000000</v>
+      </c>
+      <c r="E263">
+        <v>40.828574000000003</v>
+      </c>
+      <c r="F263">
+        <v>-73.917726999999999</v>
+      </c>
+      <c r="G263" t="s">
+        <v>195</v>
+      </c>
+      <c r="H263" t="s">
+        <v>89</v>
+      </c>
+      <c r="I263">
+        <v>10456</v>
+      </c>
+      <c r="J263" t="s">
+        <v>5</v>
+      </c>
+      <c r="K263" t="s">
+        <v>90</v>
+      </c>
+      <c r="L263" t="s">
+        <v>195</v>
+      </c>
+      <c r="M263" t="s">
+        <v>8</v>
+      </c>
+      <c r="N263" t="s">
+        <v>8</v>
+      </c>
+      <c r="O263" t="s">
+        <v>8</v>
+      </c>
+      <c r="P263" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>8</v>
+      </c>
+      <c r="R263" t="s">
+        <v>8</v>
+      </c>
+      <c r="S263" t="s">
+        <v>10</v>
+      </c>
+      <c r="T263" t="s">
+        <v>8</v>
+      </c>
+      <c r="U263" t="s">
+        <v>9</v>
+      </c>
+      <c r="V263" t="s">
+        <v>21</v>
+      </c>
+      <c r="W263" t="s">
+        <v>12</v>
+      </c>
+      <c r="X263" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z263" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC263">
+        <v>30</v>
+      </c>
+      <c r="AD263">
+        <v>275.18</v>
+      </c>
+      <c r="AE263">
+        <v>323.74</v>
+      </c>
+      <c r="AF263">
+        <v>25</v>
+      </c>
+      <c r="AG263" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH263" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI263" s="2">
+        <v>41236</v>
+      </c>
+      <c r="AJ263" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK263" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL263" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM263" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN263" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO263" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP263" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ263" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS263">
+        <v>0</v>
+      </c>
+      <c r="AT263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:46">
+      <c r="A264" t="s">
+        <v>411</v>
+      </c>
+      <c r="B264" t="s">
+        <v>394</v>
+      </c>
+      <c r="C264" t="s">
+        <v>402</v>
+      </c>
+      <c r="D264" s="1">
+        <v>360000000000</v>
+      </c>
+      <c r="E264">
+        <v>40.828574000000003</v>
+      </c>
+      <c r="F264">
+        <v>-73.917726999999999</v>
+      </c>
+      <c r="G264" t="s">
+        <v>195</v>
+      </c>
+      <c r="H264" t="s">
+        <v>89</v>
+      </c>
+      <c r="I264">
+        <v>10456</v>
+      </c>
+      <c r="J264" t="s">
+        <v>5</v>
+      </c>
+      <c r="K264" t="s">
+        <v>90</v>
+      </c>
+      <c r="L264" t="s">
+        <v>195</v>
+      </c>
+      <c r="M264" t="s">
+        <v>8</v>
+      </c>
+      <c r="N264" t="s">
+        <v>8</v>
+      </c>
+      <c r="O264" t="s">
+        <v>8</v>
+      </c>
+      <c r="P264" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>8</v>
+      </c>
+      <c r="R264" t="s">
+        <v>8</v>
+      </c>
+      <c r="S264" t="s">
+        <v>10</v>
+      </c>
+      <c r="T264" t="s">
+        <v>8</v>
+      </c>
+      <c r="U264" t="s">
+        <v>9</v>
+      </c>
+      <c r="V264" t="s">
+        <v>106</v>
+      </c>
+      <c r="W264" t="s">
+        <v>12</v>
+      </c>
+      <c r="X264" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z264" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC264">
+        <v>30</v>
+      </c>
+      <c r="AD264">
+        <v>445.75</v>
+      </c>
+      <c r="AE264">
+        <v>524.41</v>
+      </c>
+      <c r="AF264">
+        <v>25</v>
+      </c>
+      <c r="AG264" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH264" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI264" s="2">
+        <v>41512</v>
+      </c>
+      <c r="AJ264" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK264" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL264" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM264" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN264" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO264" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP264" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ264" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR264">
+        <v>50</v>
+      </c>
+      <c r="AS264">
+        <v>0</v>
+      </c>
+      <c r="AT264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:46">
+      <c r="A265" t="s">
+        <v>401</v>
+      </c>
+      <c r="B265" t="s">
+        <v>394</v>
+      </c>
+      <c r="C265" t="s">
+        <v>402</v>
+      </c>
+      <c r="D265" s="1">
+        <v>360000000000</v>
+      </c>
+      <c r="E265">
+        <v>40.828574000000003</v>
+      </c>
+      <c r="F265">
+        <v>-73.917726999999999</v>
+      </c>
+      <c r="G265" t="s">
+        <v>195</v>
+      </c>
+      <c r="H265" t="s">
+        <v>89</v>
+      </c>
+      <c r="I265">
+        <v>10456</v>
+      </c>
+      <c r="J265" t="s">
+        <v>5</v>
+      </c>
+      <c r="K265" t="s">
+        <v>90</v>
+      </c>
+      <c r="L265" t="s">
+        <v>195</v>
+      </c>
+      <c r="M265" t="s">
+        <v>8</v>
+      </c>
+      <c r="N265" t="s">
+        <v>8</v>
+      </c>
+      <c r="O265" t="s">
+        <v>8</v>
+      </c>
+      <c r="P265" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>8</v>
+      </c>
+      <c r="R265" t="s">
+        <v>8</v>
+      </c>
+      <c r="S265" t="s">
+        <v>10</v>
+      </c>
+      <c r="T265" t="s">
+        <v>8</v>
+      </c>
+      <c r="U265" t="s">
+        <v>9</v>
+      </c>
+      <c r="V265" t="s">
+        <v>101</v>
+      </c>
+      <c r="W265" t="s">
+        <v>98</v>
+      </c>
+      <c r="X265" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z265" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA265" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC265">
+        <v>30</v>
+      </c>
+      <c r="AD265">
+        <v>243.6</v>
+      </c>
+      <c r="AE265">
+        <v>286.58999999999997</v>
+      </c>
+      <c r="AF265">
+        <v>25</v>
+      </c>
+      <c r="AG265" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH265" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI265" s="2">
+        <v>41555</v>
+      </c>
+      <c r="AJ265" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK265" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL265" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM265" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN265" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO265" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP265" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ265" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR265">
+        <v>100</v>
+      </c>
+      <c r="AS265">
+        <v>0</v>
+      </c>
+      <c r="AT265">
         <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:46">
+      <c r="A266" t="s">
+        <v>414</v>
+      </c>
+      <c r="B266">
+        <v>12</v>
+      </c>
+      <c r="C266">
+        <v>16</v>
+      </c>
+      <c r="D266" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="268" spans="1:46">
+      <c r="A268" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="270" spans="1:46">
+      <c r="A270">
+        <f>F174+B192+B211+B228+B249+B266</f>
+        <v>199</v>
+      </c>
+      <c r="B270">
+        <f>G174+C192+C211+C228+C249+C266</f>
+        <v>238</v>
+      </c>
+      <c r="C270">
+        <f>A270/B270</f>
+        <v>0.83613445378151263</v>
       </c>
     </row>
   </sheetData>
